--- a/GestorReceitas/Fevereiro/relatorioMensal_backup_fevereiro_20250317_215147.xlsx
+++ b/GestorReceitas/Fevereiro/relatorioMensal_backup_fevereiro_20250317_215147.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\Fevereiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635A76FC-FB76-4A8E-B3E6-D6547D8DDBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61D2F66-5085-4D9C-B371-67AD6E72F4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="450">
   <si>
     <t>Nome</t>
   </si>
@@ -1383,6 +1383,9 @@
   </si>
   <si>
     <t>CAF Carnaval</t>
+  </si>
+  <si>
+    <t>60 para faturar claudio</t>
   </si>
 </sst>
 </file>
@@ -3209,8 +3212,8 @@
   <dimension ref="A1:R146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3323,7 +3326,7 @@
         <v>-15</v>
       </c>
       <c r="P2" s="3">
-        <f>J2 + M2   +  N2 - (G2 + H2 + I2 + J2 + S2 )</f>
+        <f t="shared" ref="P2:P33" si="0">J2 + M2   +  N2 - (G2 + H2 + I2 + J2 + S2 )</f>
         <v>12</v>
       </c>
       <c r="R2" t="s">
@@ -3373,7 +3376,7 @@
         <v>30</v>
       </c>
       <c r="P3" s="3">
-        <f>J3 + M3   +  N3 - (G3 + H3 + I3 + J3 + S3 )</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="R3" t="s">
@@ -3423,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="3">
-        <f>J4 + M4   +  N4 - (G4 + H4 + I4 + J4 + S4 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R4" t="s">
@@ -3473,7 +3476,7 @@
         <v>-15</v>
       </c>
       <c r="P5" s="3">
-        <f>J5 + M5   +  N5 - (G5 + H5 + I5 + J5 + S5 )</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="R5" t="s">
@@ -3512,7 +3515,9 @@
         <v>12</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2">
+        <v>45</v>
+      </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
@@ -3523,7 +3528,7 @@
         <v>-44</v>
       </c>
       <c r="P6" s="3">
-        <f>J6 + M6   +  N6 - (G6 + H6 + I6 + J6 + S6 )</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="R6" t="s">
@@ -3575,7 +3580,7 @@
         <v>-15</v>
       </c>
       <c r="P7" s="3">
-        <f>J7 + M7   +  N7 - (G7 + H7 + I7 + J7 + S7 )</f>
+        <f t="shared" si="0"/>
         <v>34.5</v>
       </c>
       <c r="R7" t="s">
@@ -3622,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <f>J8 + M8   +  N8 - (G8 + H8 + I8 + J8 + S8 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R8" t="s">
@@ -3672,7 +3677,7 @@
         <v>-15</v>
       </c>
       <c r="P9" s="3">
-        <f>J9 + M9   +  N9 - (G9 + H9 + I9 + J9 + S9 )</f>
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
       <c r="R9" t="s">
@@ -3722,7 +3727,7 @@
         <v>-15</v>
       </c>
       <c r="P10" s="3">
-        <f>J10 + M10   +  N10 - (G10 + H10 + I10 + J10 + S10 )</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="R10" t="s">
@@ -3772,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="3">
-        <f>J11 + M11   +  N11 - (G11 + H11 + I11 + J11 + S11 )</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="R11" t="s">
@@ -3822,7 +3827,7 @@
         <v>-15</v>
       </c>
       <c r="P12" s="3">
-        <f>J12 + M12   +  N12 - (G12 + H12 + I12 + J12 + S12 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R12" t="s">
@@ -3872,7 +3877,7 @@
         <v>-15</v>
       </c>
       <c r="P13" s="3">
-        <f>J13 + M13   +  N13 - (G13 + H13 + I13 + J13 + S13 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R13" t="s">
@@ -3924,7 +3929,7 @@
         <v>-15</v>
       </c>
       <c r="P14" s="3">
-        <f>J14 + M14   +  N14 - (G14 + H14 + I14 + J14 + S14 )</f>
+        <f t="shared" si="0"/>
         <v>34.5</v>
       </c>
       <c r="R14" t="s">
@@ -3974,7 +3979,7 @@
         <v>-15</v>
       </c>
       <c r="P15" s="3">
-        <f>J15 + M15   +  N15 - (G15 + H15 + I15 + J15 + S15 )</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="R15" t="s">
@@ -4013,7 +4018,9 @@
         <v>0</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="L16" s="2">
+        <v>10</v>
+      </c>
       <c r="M16" s="2">
         <v>0</v>
       </c>
@@ -4024,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="3">
-        <f>J16 + M16   +  N16 - (G16 + H16 + I16 + J16 + S16 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R16" t="s">
@@ -4074,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
-        <f>J17 + M17   +  N17 - (G17 + H17 + I17 + J17 + S17 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4121,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
-        <f>J18 + M18   +  N18 - (G18 + H18 + I18 + J18 + S18 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R18" t="s">
@@ -4171,7 +4178,7 @@
         <v>-15</v>
       </c>
       <c r="P19" s="3">
-        <f>J19 + M19   +  N19 - (G19 + H19 + I19 + J19 + S19 )</f>
+        <f t="shared" si="0"/>
         <v>-8</v>
       </c>
       <c r="R19" t="s">
@@ -4221,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <f>J20 + M20   +  N20 - (G20 + H20 + I20 + J20 + S20 )</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R20" t="s">
@@ -4271,7 +4278,7 @@
         <v>73</v>
       </c>
       <c r="P21" s="3">
-        <f>J21 + M21   +  N21 - (G21 + H21 + I21 + J21 + S21 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R21" t="s">
@@ -4310,7 +4317,9 @@
         <v>0</v>
       </c>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="L22" s="2">
+        <v>15</v>
+      </c>
       <c r="M22" s="2">
         <v>0</v>
       </c>
@@ -4321,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <f>J22 + M22   +  N22 - (G22 + H22 + I22 + J22 + S22 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R22" t="s">
@@ -4373,7 +4382,7 @@
         <v>10</v>
       </c>
       <c r="P23" s="3">
-        <f>J23 + M23   +  N23 - (G23 + H23 + I23 + J23 + S23 )</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="R23" t="s">
@@ -4420,7 +4429,7 @@
         <v>-60</v>
       </c>
       <c r="P24" s="3">
-        <f>J24 + M24   +  N24 - (G24 + H24 + I24 + J24 + S24 )</f>
+        <f t="shared" si="0"/>
         <v>-19</v>
       </c>
       <c r="R24" t="s">
@@ -4470,7 +4479,7 @@
         <v>-15</v>
       </c>
       <c r="P25" s="3">
-        <f>J25 + M25   +  N25 - (G25 + H25 + I25 + J25 + S25 )</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="R25" t="s">
@@ -4517,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <f>J26 + M26   +  N26 - (G26 + H26 + I26 + J26 + S26 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R26" t="s">
@@ -4567,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
-        <f>J27 + M27   +  N27 - (G27 + H27 + I27 + J27 + S27 )</f>
+        <f t="shared" si="0"/>
         <v>-3.75</v>
       </c>
       <c r="R27" t="s">
@@ -4606,7 +4615,9 @@
         <v>12</v>
       </c>
       <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="L28" s="2">
+        <v>30</v>
+      </c>
       <c r="M28" s="2">
         <v>0</v>
       </c>
@@ -4617,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="3">
-        <f>J28 + M28   +  N28 - (G28 + H28 + I28 + J28 + S28 )</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="R28" t="s">
@@ -4667,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
-        <f>J29 + M29   +  N29 - (G29 + H29 + I29 + J29 + S29 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R29" t="s">
@@ -4717,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="3">
-        <f>J30 + M30   +  N30 - (G30 + H30 + I30 + J30 + S30 )</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="R30" t="s">
@@ -4767,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="3">
-        <f>J31 + M31   +  N31 - (G31 + H31 + I31 + J31 + S31 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R31" t="s">
@@ -4806,7 +4817,9 @@
         <v>12</v>
       </c>
       <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="L32" s="2">
+        <v>40</v>
+      </c>
       <c r="M32" s="2">
         <v>77</v>
       </c>
@@ -4817,7 +4830,7 @@
         <v>-15</v>
       </c>
       <c r="P32" s="3">
-        <f>J32 + M32   +  N32 - (G32 + H32 + I32 + J32 + S32 )</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="R32" t="s">
@@ -4856,7 +4869,9 @@
         <v>12</v>
       </c>
       <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="L33" s="2">
+        <v>30</v>
+      </c>
       <c r="M33" s="2">
         <v>0</v>
       </c>
@@ -4867,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <f>J33 + M33   +  N33 - (G33 + H33 + I33 + J33 + S33 )</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="R33" t="s">
@@ -4917,7 +4932,7 @@
         <v>-20</v>
       </c>
       <c r="P34" s="3">
-        <f>J34 + M34   +  N34 - (G34 + H34 + I34 + J34 + S34 )</f>
+        <f t="shared" ref="P34:P65" si="1">J34 + M34   +  N34 - (G34 + H34 + I34 + J34 + S34 )</f>
         <v>-14</v>
       </c>
       <c r="R34" t="s">
@@ -4969,7 +4984,7 @@
         <v>45</v>
       </c>
       <c r="P35" s="3">
-        <f>J35 + M35   +  N35 - (G35 + H35 + I35 + J35 + S35 )</f>
+        <f t="shared" si="1"/>
         <v>-45</v>
       </c>
       <c r="R35" t="s">
@@ -5019,7 +5034,7 @@
         <v>-34</v>
       </c>
       <c r="P36" s="3">
-        <f>J36 + M36   +  N36 - (G36 + H36 + I36 + J36 + S36 )</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="R36" t="s">
@@ -5066,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="3">
-        <f>J37 + M37   +  N37 - (G37 + H37 + I37 + J37 + S37 )</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R37" t="s">
@@ -5116,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="3">
-        <f>J38 + M38   +  N38 - (G38 + H38 + I38 + J38 + S38 )</f>
+        <f t="shared" si="1"/>
         <v>-15</v>
       </c>
       <c r="R38" t="s">
@@ -5166,7 +5181,7 @@
         <v>27.5</v>
       </c>
       <c r="P39" s="3">
-        <f>J39 + M39   +  N39 - (G39 + H39 + I39 + J39 + S39 )</f>
+        <f t="shared" si="1"/>
         <v>-27</v>
       </c>
       <c r="R39" t="s">
@@ -5216,7 +5231,7 @@
         <v>-15</v>
       </c>
       <c r="P40" s="3">
-        <f>J40 + M40   +  N40 - (G40 + H40 + I40 + J40 + S40 )</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="R40" t="s">
@@ -5266,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <f>J41 + M41   +  N41 - (G41 + H41 + I41 + J41 + S41 )</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R41" t="s">
@@ -5305,7 +5320,9 @@
         <v>0</v>
       </c>
       <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
+      <c r="L42" s="2">
+        <v>15</v>
+      </c>
       <c r="M42" s="2">
         <v>0</v>
       </c>
@@ -5316,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
-        <f>J42 + M42   +  N42 - (G42 + H42 + I42 + J42 + S42 )</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="R42" t="s">
@@ -5355,7 +5372,9 @@
         <v>0</v>
       </c>
       <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
+      <c r="L43" s="2">
+        <v>20</v>
+      </c>
       <c r="M43" s="2">
         <v>0</v>
       </c>
@@ -5366,7 +5385,7 @@
         <v>-15</v>
       </c>
       <c r="P43" s="3">
-        <f>J43 + M43   +  N43 - (G43 + H43 + I43 + J43 + S43 )</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="R43" t="s">
@@ -5416,7 +5435,7 @@
         <v>-15</v>
       </c>
       <c r="P44" s="3">
-        <f>J44 + M44   +  N44 - (G44 + H44 + I44 + J44 + S44 )</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R44" t="s">
@@ -5455,7 +5474,9 @@
         <v>12</v>
       </c>
       <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
+      <c r="L45" s="2">
+        <v>15</v>
+      </c>
       <c r="M45" s="2">
         <v>0</v>
       </c>
@@ -5466,7 +5487,7 @@
         <v>-15</v>
       </c>
       <c r="P45" s="3">
-        <f>J45 + M45   +  N45 - (G45 + H45 + I45 + J45 + S45 )</f>
+        <f t="shared" si="1"/>
         <v>34.5</v>
       </c>
       <c r="R45" t="s">
@@ -5505,7 +5526,9 @@
         <v>0</v>
       </c>
       <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
+      <c r="L46" s="2">
+        <v>15</v>
+      </c>
       <c r="M46" s="2">
         <v>0</v>
       </c>
@@ -5516,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <f>J46 + M46   +  N46 - (G46 + H46 + I46 + J46 + S46 )</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="R46" t="s">
@@ -5563,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <f>J47 + M47   +  N47 - (G47 + H47 + I47 + J47 + S47 )</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R47" t="s">
@@ -5602,7 +5625,9 @@
         <v>12</v>
       </c>
       <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
+      <c r="L48" s="2">
+        <v>15</v>
+      </c>
       <c r="M48" s="2">
         <v>0</v>
       </c>
@@ -5613,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <f>J48 + M48   +  N48 - (G48 + H48 + I48 + J48 + S48 )</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="R48" t="s">
@@ -5663,7 +5688,7 @@
         <v>67.5</v>
       </c>
       <c r="P49" s="3">
-        <f>J49 + M49   +  N49 - (G49 + H49 + I49 + J49 + S49 )</f>
+        <f t="shared" si="1"/>
         <v>-15</v>
       </c>
       <c r="R49" t="s">
@@ -5702,7 +5727,9 @@
         <v>12</v>
       </c>
       <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
+      <c r="L50" s="2">
+        <v>15</v>
+      </c>
       <c r="M50" s="2">
         <v>0</v>
       </c>
@@ -5713,7 +5740,7 @@
         <v>-37.5</v>
       </c>
       <c r="P50" s="3">
-        <f>J50 + M50   +  N50 - (G50 + H50 + I50 + J50 + S50 )</f>
+        <f t="shared" si="1"/>
         <v>-45</v>
       </c>
       <c r="R50" t="s">
@@ -5765,7 +5792,7 @@
         <v>-2</v>
       </c>
       <c r="P51" s="3">
-        <f>J51 + M51   +  N51 - (G51 + H51 + I51 + J51 + S51 )</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="R51" t="s">
@@ -5806,7 +5833,9 @@
       <c r="K52" s="2">
         <v>19</v>
       </c>
-      <c r="L52" s="2"/>
+      <c r="L52" s="2">
+        <v>35</v>
+      </c>
       <c r="M52" s="2">
         <v>0</v>
       </c>
@@ -5817,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
-        <f>J52 + M52   +  N52 - (G52 + H52 + I52 + J52 + S52 )</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="R52" t="s">
@@ -5867,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="3">
-        <f>J53 + M53   +  N53 - (G53 + H53 + I53 + J53 + S53 )</f>
+        <f t="shared" si="1"/>
         <v>-15</v>
       </c>
       <c r="R53" t="s">
@@ -5919,7 +5948,7 @@
         <v>-15</v>
       </c>
       <c r="P54" s="3">
-        <f>J54 + M54   +  N54 - (G54 + H54 + I54 + J54 + S54 )</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="R54" t="s">
@@ -5966,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="3">
-        <f>J55 + M55   +  N55 - (G55 + H55 + I55 + J55 + S55 )</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="R55" t="s">
@@ -6016,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="3">
-        <f>J56 + M56   +  N56 - (G56 + H56 + I56 + J56 + S56 )</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="R56" t="s">
@@ -6055,7 +6084,9 @@
         <v>0</v>
       </c>
       <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
+      <c r="L57" s="2">
+        <v>15</v>
+      </c>
       <c r="M57" s="2">
         <v>0</v>
       </c>
@@ -6066,7 +6097,7 @@
         <v>-15</v>
       </c>
       <c r="P57" s="3">
-        <f>J57 + M57   +  N57 - (G57 + H57 + I57 + J57 + S57 )</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R57" t="s">
@@ -6116,7 +6147,7 @@
         <v>-38</v>
       </c>
       <c r="P58" s="3">
-        <f>J58 + M58   +  N58 - (G58 + H58 + I58 + J58 + S58 )</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="R58" t="s">
@@ -6166,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <f>J59 + M59   +  N59 - (G59 + H59 + I59 + J59 + S59 )</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="R59" t="s">
@@ -6216,7 +6247,7 @@
         <v>-15</v>
       </c>
       <c r="P60" s="3">
-        <f>J60 + M60   +  N60 - (G60 + H60 + I60 + J60 + S60 )</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="R60" t="s">
@@ -6255,7 +6286,9 @@
         <v>12</v>
       </c>
       <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
+      <c r="L61" s="2">
+        <v>40</v>
+      </c>
       <c r="M61" s="2">
         <v>0</v>
       </c>
@@ -6266,7 +6299,7 @@
         <v>-80</v>
       </c>
       <c r="P61" s="3">
-        <f>J61 + M61   +  N61 - (G61 + H61 + I61 + J61 + S61 )</f>
+        <f t="shared" si="1"/>
         <v>-59</v>
       </c>
       <c r="R61" t="s">
@@ -6316,7 +6349,7 @@
         <v>-5</v>
       </c>
       <c r="P62" s="3">
-        <f>J62 + M62   +  N62 - (G62 + H62 + I62 + J62 + S62 )</f>
+        <f t="shared" si="1"/>
         <v>-31.5</v>
       </c>
       <c r="R62" t="s">
@@ -6366,7 +6399,7 @@
         <v>-27</v>
       </c>
       <c r="P63" s="3">
-        <f>J63 + M63   +  N63 - (G63 + H63 + I63 + J63 + S63 )</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="R63" t="s">
@@ -6416,7 +6449,7 @@
         <v>-23</v>
       </c>
       <c r="P64" s="3">
-        <f>J64 + M64   +  N64 - (G64 + H64 + I64 + J64 + S64 )</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R64" t="s">
@@ -6455,7 +6488,9 @@
         <v>0</v>
       </c>
       <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
+      <c r="L65" s="2">
+        <v>5</v>
+      </c>
       <c r="M65" s="2">
         <v>0</v>
       </c>
@@ -6466,7 +6501,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="3">
-        <f>J65 + M65   +  N65 - (G65 + H65 + I65 + J65 + S65 )</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R65" t="s">
@@ -6516,7 +6551,7 @@
         <v>73</v>
       </c>
       <c r="P66" s="3">
-        <f>J66 + M66   +  N66 - (G66 + H66 + I66 + J66 + S66 )</f>
+        <f t="shared" ref="P66:P97" si="2">J66 + M66   +  N66 - (G66 + H66 + I66 + J66 + S66 )</f>
         <v>0</v>
       </c>
       <c r="R66" t="s">
@@ -6566,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="P67" s="3">
-        <f>J67 + M67   +  N67 - (G67 + H67 + I67 + J67 + S67 )</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R67" t="s">
@@ -6605,7 +6640,9 @@
         <v>0</v>
       </c>
       <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
+      <c r="L68" s="2">
+        <v>20</v>
+      </c>
       <c r="M68" s="2">
         <v>0</v>
       </c>
@@ -6616,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="3">
-        <f>J68 + M68   +  N68 - (G68 + H68 + I68 + J68 + S68 )</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R68" t="s">
@@ -6655,7 +6692,9 @@
         <v>12</v>
       </c>
       <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
+      <c r="L69" s="2">
+        <v>5</v>
+      </c>
       <c r="M69" s="2">
         <v>0</v>
       </c>
@@ -6666,7 +6705,7 @@
         <v>20</v>
       </c>
       <c r="P69" s="3">
-        <f>J69 + M69   +  N69 - (G69 + H69 + I69 + J69 + S69 )</f>
+        <f t="shared" si="2"/>
         <v>-23</v>
       </c>
       <c r="R69" t="s">
@@ -6716,7 +6755,7 @@
         <v>-14</v>
       </c>
       <c r="P70" s="3">
-        <f>J70 + M70   +  N70 - (G70 + H70 + I70 + J70 + S70 )</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="R70" t="s">
@@ -6755,7 +6794,9 @@
         <v>0</v>
       </c>
       <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
+      <c r="L71" s="2">
+        <v>15</v>
+      </c>
       <c r="M71" s="2">
         <v>0</v>
       </c>
@@ -6766,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="P71" s="3">
-        <f>J71 + M71   +  N71 - (G71 + H71 + I71 + J71 + S71 )</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R71" t="s">
@@ -6816,7 +6857,7 @@
         <v>-68</v>
       </c>
       <c r="P72" s="3">
-        <f>J72 + M72   +  N72 - (G72 + H72 + I72 + J72 + S72 )</f>
+        <f t="shared" si="2"/>
         <v>-45</v>
       </c>
       <c r="R72" t="s">
@@ -6868,7 +6909,7 @@
         <v>-15</v>
       </c>
       <c r="P73" s="3">
-        <f>J73 + M73   +  N73 - (G73 + H73 + I73 + J73 + S73 )</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="R73" t="s">
@@ -6918,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="P74" s="3">
-        <f>J74 + M74   +  N74 - (G74 + H74 + I74 + J74 + S74 )</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R74" t="s">
@@ -6968,7 +7009,7 @@
         <v>-15</v>
       </c>
       <c r="P75" s="3">
-        <f>J75 + M75   +  N75 - (G75 + H75 + I75 + J75 + S75 )</f>
+        <f t="shared" si="2"/>
         <v>-7.5</v>
       </c>
       <c r="R75" t="s">
@@ -7007,7 +7048,9 @@
         <v>0</v>
       </c>
       <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
+      <c r="L76" s="2">
+        <v>20</v>
+      </c>
       <c r="M76" s="2">
         <v>0</v>
       </c>
@@ -7018,7 +7061,7 @@
         <v>-15</v>
       </c>
       <c r="P76" s="3">
-        <f>J76 + M76   +  N76 - (G76 + H76 + I76 + J76 + S76 )</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="R76" t="s">
@@ -7068,7 +7111,7 @@
         <v>-49</v>
       </c>
       <c r="P77" s="3">
-        <f>J77 + M77   +  N77 - (G77 + H77 + I77 + J77 + S77 )</f>
+        <f t="shared" si="2"/>
         <v>-45</v>
       </c>
       <c r="R77" t="s">
@@ -7118,7 +7161,7 @@
         <v>-12</v>
       </c>
       <c r="P78" s="3">
-        <f>J78 + M78   +  N78 - (G78 + H78 + I78 + J78 + S78 )</f>
+        <f t="shared" si="2"/>
         <v>15.5</v>
       </c>
       <c r="R78" t="s">
@@ -7168,7 +7211,7 @@
         <v>-80</v>
       </c>
       <c r="P79" s="3">
-        <f>J79 + M79   +  N79 - (G79 + H79 + I79 + J79 + S79 )</f>
+        <f t="shared" si="2"/>
         <v>-31.5</v>
       </c>
       <c r="R79" t="s">
@@ -7218,7 +7261,7 @@
         <v>-22.5</v>
       </c>
       <c r="P80" s="3">
-        <f>J80 + M80   +  N80 - (G80 + H80 + I80 + J80 + S80 )</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="R80" t="s">
@@ -7257,7 +7300,9 @@
         <v>12</v>
       </c>
       <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
+      <c r="L81" s="2">
+        <v>40</v>
+      </c>
       <c r="M81" s="2">
         <v>37</v>
       </c>
@@ -7268,7 +7313,7 @@
         <v>-15</v>
       </c>
       <c r="P81" s="3">
-        <f>J81 + M81   +  N81 - (G81 + H81 + I81 + J81 + S81 )</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="R81" t="s">
@@ -7307,7 +7352,9 @@
         <v>12</v>
       </c>
       <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
+      <c r="L82" s="2">
+        <v>25</v>
+      </c>
       <c r="M82" s="2">
         <v>0</v>
       </c>
@@ -7318,7 +7365,7 @@
         <v>-15</v>
       </c>
       <c r="P82" s="3">
-        <f>J82 + M82   +  N82 - (G82 + H82 + I82 + J82 + S82 )</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="R82" t="s">
@@ -7368,7 +7415,7 @@
         <v>-12</v>
       </c>
       <c r="P83" s="3">
-        <f>J83 + M83   +  N83 - (G83 + H83 + I83 + J83 + S83 )</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="R83" t="s">
@@ -7420,7 +7467,7 @@
         <v>-12</v>
       </c>
       <c r="P84" s="3">
-        <f>J84 + M84   +  N84 - (G84 + H84 + I84 + J84 + S84 )</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="R84" t="s">
@@ -7459,7 +7506,9 @@
         <v>12</v>
       </c>
       <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
+      <c r="L85" s="2">
+        <v>15</v>
+      </c>
       <c r="M85" s="2">
         <v>0</v>
       </c>
@@ -7470,7 +7519,7 @@
         <v>-15</v>
       </c>
       <c r="P85" s="3">
-        <f>J85 + M85   +  N85 - (G85 + H85 + I85 + J85 + S85 )</f>
+        <f t="shared" si="2"/>
         <v>19.5</v>
       </c>
       <c r="R85" t="s">
@@ -7520,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="P86" s="3">
-        <f>J86 + M86   +  N86 - (G86 + H86 + I86 + J86 + S86 )</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R86" t="s">
@@ -7559,7 +7608,9 @@
         <v>0</v>
       </c>
       <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
+      <c r="L87" s="2">
+        <v>15</v>
+      </c>
       <c r="M87" s="2">
         <v>0</v>
       </c>
@@ -7570,7 +7621,7 @@
         <v>0</v>
       </c>
       <c r="P87" s="3">
-        <f>J87 + M87   +  N87 - (G87 + H87 + I87 + J87 + S87 )</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R87" t="s">
@@ -7622,7 +7673,7 @@
         <v>-15</v>
       </c>
       <c r="P88" s="3">
-        <f>J88 + M88   +  N88 - (G88 + H88 + I88 + J88 + S88 )</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="R88" t="s">
@@ -7661,7 +7712,9 @@
         <v>0</v>
       </c>
       <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
+      <c r="L89" s="2">
+        <v>15</v>
+      </c>
       <c r="M89" s="2">
         <v>0</v>
       </c>
@@ -7672,7 +7725,7 @@
         <v>-15</v>
       </c>
       <c r="P89" s="3">
-        <f>J89 + M89   +  N89 - (G89 + H89 + I89 + J89 + S89 )</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R89" t="s">
@@ -7713,7 +7766,9 @@
       <c r="K90" s="2">
         <v>19</v>
       </c>
-      <c r="L90" s="2"/>
+      <c r="L90" s="2">
+        <v>7.5</v>
+      </c>
       <c r="M90" s="2">
         <v>0</v>
       </c>
@@ -7724,7 +7779,7 @@
         <v>-15</v>
       </c>
       <c r="P90" s="3">
-        <f>J90 + M90   +  N90 - (G90 + H90 + I90 + J90 + S90 )</f>
+        <f t="shared" si="2"/>
         <v>-31.5</v>
       </c>
       <c r="R90" t="s">
@@ -7774,7 +7829,7 @@
         <v>-2</v>
       </c>
       <c r="P91" s="3">
-        <f>J91 + M91   +  N91 - (G91 + H91 + I91 + J91 + S91 )</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R91" t="s">
@@ -7826,7 +7881,7 @@
         <v>15</v>
       </c>
       <c r="P92" s="3">
-        <f>J92 + M92   +  N92 - (G92 + H92 + I92 + J92 + S92 )</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="R92" t="s">
@@ -7876,7 +7931,7 @@
         <v>-19</v>
       </c>
       <c r="P93" s="3">
-        <f>J93 + M93   +  N93 - (G93 + H93 + I93 + J93 + S93 )</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="R93" t="s">
@@ -7926,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
-        <f>J94 + M94   +  N94 - (G94 + H94 + I94 + J94 + S94 )</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R94" t="s">
@@ -7965,7 +8020,9 @@
         <v>0</v>
       </c>
       <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
+      <c r="L95" s="2">
+        <v>5</v>
+      </c>
       <c r="M95" s="2">
         <v>0</v>
       </c>
@@ -7976,7 +8033,7 @@
         <v>15</v>
       </c>
       <c r="P95" s="3">
-        <f>J95 + M95   +  N95 - (G95 + H95 + I95 + J95 + S95 )</f>
+        <f t="shared" si="2"/>
         <v>-15</v>
       </c>
       <c r="R95" t="s">
@@ -8026,7 +8083,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <f>J96 + M96   +  N96 - (G96 + H96 + I96 + J96 + S96 )</f>
+        <f t="shared" si="2"/>
         <v>-23</v>
       </c>
       <c r="R96" t="s">
@@ -8076,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="P97" s="3">
-        <f>J97 + M97   +  N97 - (G97 + H97 + I97 + J97 + S97 )</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R97" t="s">
@@ -8126,7 +8183,7 @@
         <v>-34.25</v>
       </c>
       <c r="P98" s="3">
-        <f>J98 + M98   +  N98 - (G98 + H98 + I98 + J98 + S98 )</f>
+        <f t="shared" ref="P98:P129" si="3">J98 + M98   +  N98 - (G98 + H98 + I98 + J98 + S98 )</f>
         <v>4.25</v>
       </c>
       <c r="R98" t="s">
@@ -8165,7 +8222,9 @@
         <v>12</v>
       </c>
       <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
+      <c r="L99" s="2">
+        <v>5</v>
+      </c>
       <c r="M99" s="2">
         <v>0</v>
       </c>
@@ -8176,7 +8235,7 @@
         <v>-15</v>
       </c>
       <c r="P99" s="3">
-        <f>J99 + M99   +  N99 - (G99 + H99 + I99 + J99 + S99 )</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="R99" t="s">
@@ -8217,7 +8276,9 @@
       <c r="K100" s="2">
         <v>29</v>
       </c>
-      <c r="L100" s="2"/>
+      <c r="L100" s="2">
+        <v>15</v>
+      </c>
       <c r="M100" s="2">
         <v>0</v>
       </c>
@@ -8228,7 +8289,7 @@
         <v>-27</v>
       </c>
       <c r="P100" s="3">
-        <f>J100 + M100   +  N100 - (G100 + H100 + I100 + J100 + S100 )</f>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="R100" t="s">
@@ -8267,7 +8328,9 @@
         <v>0</v>
       </c>
       <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
+      <c r="L101" s="2">
+        <v>20</v>
+      </c>
       <c r="M101" s="2">
         <v>0</v>
       </c>
@@ -8278,7 +8341,7 @@
         <v>-15</v>
       </c>
       <c r="P101" s="3">
-        <f>J101 + M101   +  N101 - (G101 + H101 + I101 + J101 + S101 )</f>
+        <f t="shared" si="3"/>
         <v>-15</v>
       </c>
       <c r="R101" t="s">
@@ -8328,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <f>J102 + M102   +  N102 - (G102 + H102 + I102 + J102 + S102 )</f>
+        <f t="shared" si="3"/>
         <v>-30</v>
       </c>
       <c r="R102" t="s">
@@ -8380,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="P103" s="3">
-        <f>J103 + M103   +  N103 - (G103 + H103 + I103 + J103 + S103 )</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="R103" t="s">
@@ -8419,7 +8482,9 @@
         <v>12</v>
       </c>
       <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
+      <c r="L104" s="2">
+        <v>35</v>
+      </c>
       <c r="M104" s="2">
         <v>0</v>
       </c>
@@ -8430,7 +8495,7 @@
         <v>3</v>
       </c>
       <c r="P104" s="3">
-        <f>J104 + M104   +  N104 - (G104 + H104 + I104 + J104 + S104 )</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R104" t="s">
@@ -8480,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="P105" s="3">
-        <f>J105 + M105   +  N105 - (G105 + H105 + I105 + J105 + S105 )</f>
+        <f t="shared" si="3"/>
         <v>-1.5</v>
       </c>
       <c r="R105" t="s">
@@ -8530,7 +8595,7 @@
         <v>-28</v>
       </c>
       <c r="P106" s="3">
-        <f>J106 + M106   +  N106 - (G106 + H106 + I106 + J106 + S106 )</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="R106" t="s">
@@ -8569,7 +8634,9 @@
         <v>12</v>
       </c>
       <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
+      <c r="L107" s="2">
+        <v>35</v>
+      </c>
       <c r="M107" s="2">
         <v>4</v>
       </c>
@@ -8580,7 +8647,7 @@
         <v>-15</v>
       </c>
       <c r="P107" s="3">
-        <f>J107 + M107   +  N107 - (G107 + H107 + I107 + J107 + S107 )</f>
+        <f t="shared" si="3"/>
         <v>-15</v>
       </c>
       <c r="R107" t="s">
@@ -8632,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="P108" s="3">
-        <f>J108 + M108   +  N108 - (G108 + H108 + I108 + J108 + S108 )</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="R108" t="s">
@@ -8673,7 +8740,9 @@
       <c r="K109" s="2">
         <v>19</v>
       </c>
-      <c r="L109" s="2"/>
+      <c r="L109" s="2">
+        <v>7.5</v>
+      </c>
       <c r="M109" s="2">
         <v>0</v>
       </c>
@@ -8684,7 +8753,7 @@
         <v>-15</v>
       </c>
       <c r="P109" s="3">
-        <f>J109 + M109   +  N109 - (G109 + H109 + I109 + J109 + S109 )</f>
+        <f t="shared" si="3"/>
         <v>-25.5</v>
       </c>
       <c r="R109" t="s">
@@ -8723,7 +8792,9 @@
         <v>0</v>
       </c>
       <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
+      <c r="L110" s="2">
+        <v>15</v>
+      </c>
       <c r="M110" s="2">
         <v>0</v>
       </c>
@@ -8734,7 +8805,7 @@
         <v>30</v>
       </c>
       <c r="P110" s="3">
-        <f>J110 + M110   +  N110 - (G110 + H110 + I110 + J110 + S110 )</f>
+        <f t="shared" si="3"/>
         <v>-15</v>
       </c>
       <c r="R110" t="s">
@@ -8784,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="P111" s="3">
-        <f>J111 + M111   +  N111 - (G111 + H111 + I111 + J111 + S111 )</f>
+        <f t="shared" si="3"/>
         <v>-73</v>
       </c>
       <c r="R111" t="s">
@@ -8834,7 +8905,7 @@
         <v>-21</v>
       </c>
       <c r="P112" s="3">
-        <f>J112 + M112   +  N112 - (G112 + H112 + I112 + J112 + S112 )</f>
+        <f t="shared" si="3"/>
         <v>-4</v>
       </c>
       <c r="R112" t="s">
@@ -8875,7 +8946,9 @@
       <c r="K113" s="2">
         <v>25</v>
       </c>
-      <c r="L113" s="2"/>
+      <c r="L113" s="2">
+        <v>10</v>
+      </c>
       <c r="M113" s="2">
         <v>0</v>
       </c>
@@ -8886,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="P113" s="3">
-        <f>J113 + M113   +  N113 - (G113 + H113 + I113 + J113 + S113 )</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="R113" t="s">
@@ -8925,7 +8998,9 @@
         <v>12</v>
       </c>
       <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
+      <c r="L114" s="2">
+        <v>15</v>
+      </c>
       <c r="M114" s="2">
         <v>0</v>
       </c>
@@ -8936,7 +9011,7 @@
         <v>-72</v>
       </c>
       <c r="P114" s="3">
-        <f>J114 + M114   +  N114 - (G114 + H114 + I114 + J114 + S114 )</f>
+        <f t="shared" si="3"/>
         <v>-30</v>
       </c>
       <c r="R114" t="s">
@@ -8972,7 +9047,10 @@
         <v>23</v>
       </c>
       <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
+      <c r="L115" s="2">
+        <f>15+60</f>
+        <v>75</v>
+      </c>
       <c r="M115" s="2">
         <v>0</v>
       </c>
@@ -8983,8 +9061,11 @@
         <v>-27</v>
       </c>
       <c r="P115" s="3">
-        <f>J115 + M115   +  N115 - (G115 + H115 + I115 + J115 + S115 )</f>
+        <f t="shared" si="3"/>
         <v>209</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>449</v>
       </c>
       <c r="R115" t="s">
         <v>357</v>
@@ -9030,7 +9111,7 @@
         <v>-68.5</v>
       </c>
       <c r="P116" s="3">
-        <f>J116 + M116   +  N116 - (G116 + H116 + I116 + J116 + S116 )</f>
+        <f t="shared" si="3"/>
         <v>26.5</v>
       </c>
       <c r="R116" t="s">
@@ -9069,7 +9150,9 @@
         <v>0</v>
       </c>
       <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
+      <c r="L117" s="2">
+        <v>15</v>
+      </c>
       <c r="M117" s="2">
         <v>0</v>
       </c>
@@ -9080,7 +9163,7 @@
         <v>-43.5</v>
       </c>
       <c r="P117" s="3">
-        <f>J117 + M117   +  N117 - (G117 + H117 + I117 + J117 + S117 )</f>
+        <f t="shared" si="3"/>
         <v>-15</v>
       </c>
       <c r="R117" t="s">
@@ -9119,7 +9202,9 @@
         <v>0</v>
       </c>
       <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
+      <c r="L118" s="2">
+        <v>15</v>
+      </c>
       <c r="M118" s="2">
         <v>0</v>
       </c>
@@ -9130,7 +9215,7 @@
         <v>0</v>
       </c>
       <c r="P118" s="3">
-        <f>J118 + M118   +  N118 - (G118 + H118 + I118 + J118 + S118 )</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R118" t="s">
@@ -9180,7 +9265,7 @@
         <v>67.5</v>
       </c>
       <c r="P119" s="3">
-        <f>J119 + M119   +  N119 - (G119 + H119 + I119 + J119 + S119 )</f>
+        <f t="shared" si="3"/>
         <v>-15</v>
       </c>
       <c r="R119" t="s">
@@ -9230,7 +9315,7 @@
         <v>-15</v>
       </c>
       <c r="P120" s="3">
-        <f>J120 + M120   +  N120 - (G120 + H120 + I120 + J120 + S120 )</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R120" t="s">
@@ -9280,7 +9365,7 @@
         <v>23</v>
       </c>
       <c r="P121" s="3">
-        <f>J121 + M121   +  N121 - (G121 + H121 + I121 + J121 + S121 )</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R121" t="s">
@@ -9330,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="P122" s="3">
-        <f>J122 + M122   +  N122 - (G122 + H122 + I122 + J122 + S122 )</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R122" t="s">
@@ -9382,7 +9467,7 @@
         <v>50</v>
       </c>
       <c r="P123" s="3">
-        <f>J123 + M123   +  N123 - (G123 + H123 + I123 + J123 + S123 )</f>
+        <f t="shared" si="3"/>
         <v>-23</v>
       </c>
       <c r="R123" t="s">
@@ -9421,7 +9506,9 @@
         <v>12</v>
       </c>
       <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
+      <c r="L124" s="2">
+        <v>20</v>
+      </c>
       <c r="M124" s="2">
         <v>0</v>
       </c>
@@ -9432,7 +9519,7 @@
         <v>-15</v>
       </c>
       <c r="P124" s="3">
-        <f>J124 + M124   +  N124 - (G124 + H124 + I124 + J124 + S124 )</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="R124" t="s">
@@ -9482,7 +9569,7 @@
         <v>-45</v>
       </c>
       <c r="P125" s="3">
-        <f>J125 + M125   +  N125 - (G125 + H125 + I125 + J125 + S125 )</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="R125" t="s">
@@ -9521,7 +9608,9 @@
         <v>0</v>
       </c>
       <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
+      <c r="L126" s="2">
+        <v>15</v>
+      </c>
       <c r="M126" s="2">
         <v>0</v>
       </c>
@@ -9532,7 +9621,7 @@
         <v>-15</v>
       </c>
       <c r="P126" s="3">
-        <f>J126 + M126   +  N126 - (G126 + H126 + I126 + J126 + S126 )</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="R126" t="s">
@@ -9582,7 +9671,7 @@
         <v>0</v>
       </c>
       <c r="P127" s="3">
-        <f>J127 + M127   +  N127 - (G127 + H127 + I127 + J127 + S127 )</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R127" t="s">
@@ -9632,7 +9721,7 @@
         <v>-10</v>
       </c>
       <c r="P128" s="3">
-        <f>J128 + M128   +  N128 - (G128 + H128 + I128 + J128 + S128 )</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="R128" t="s">
@@ -9682,7 +9771,7 @@
         <v>15</v>
       </c>
       <c r="P129" s="3">
-        <f>J129 + M129   +  N129 - (G129 + H129 + I129 + J129 + S129 )</f>
+        <f t="shared" si="3"/>
         <v>-15</v>
       </c>
       <c r="R129" t="s">
@@ -9721,7 +9810,9 @@
         <v>0</v>
       </c>
       <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
+      <c r="L130" s="2">
+        <v>25</v>
+      </c>
       <c r="M130" s="2">
         <v>0</v>
       </c>
@@ -9732,7 +9823,7 @@
         <v>-15</v>
       </c>
       <c r="P130" s="3">
-        <f>J130 + M130   +  N130 - (G130 + H130 + I130 + J130 + S130 )</f>
+        <f t="shared" ref="P130:P146" si="4">J130 + M130   +  N130 - (G130 + H130 + I130 + J130 + S130 )</f>
         <v>15</v>
       </c>
       <c r="R130" t="s">
@@ -9771,7 +9862,9 @@
         <v>0</v>
       </c>
       <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
+      <c r="L131" s="2">
+        <v>35</v>
+      </c>
       <c r="M131" s="2">
         <v>0</v>
       </c>
@@ -9782,7 +9875,7 @@
         <v>-15</v>
       </c>
       <c r="P131" s="3">
-        <f>J131 + M131   +  N131 - (G131 + H131 + I131 + J131 + S131 )</f>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="R131" t="s">
@@ -9832,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="P132" s="3">
-        <f>J132 + M132   +  N132 - (G132 + H132 + I132 + J132 + S132 )</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R132" t="s">
@@ -9871,7 +9964,9 @@
         <v>0</v>
       </c>
       <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
+      <c r="L133" s="2">
+        <v>30</v>
+      </c>
       <c r="M133" s="2">
         <v>0</v>
       </c>
@@ -9882,7 +9977,7 @@
         <v>36.5</v>
       </c>
       <c r="P133" s="3">
-        <f>J133 + M133   +  N133 - (G133 + H133 + I133 + J133 + S133 )</f>
+        <f t="shared" si="4"/>
         <v>-17</v>
       </c>
       <c r="R133" t="s">
@@ -9932,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="P134" s="3">
-        <f>J134 + M134   +  N134 - (G134 + H134 + I134 + J134 + S134 )</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R134" t="s">
@@ -9984,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="P135" s="3">
-        <f>J135 + M135   +  N135 - (G135 + H135 + I135 + J135 + S135 )</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="R135" t="s">
@@ -10034,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P136" s="3">
-        <f>J136 + M136   +  N136 - (G136 + H136 + I136 + J136 + S136 )</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R136" t="s">
@@ -10084,7 +10179,7 @@
         <v>0</v>
       </c>
       <c r="P137" s="3">
-        <f>J137 + M137   +  N137 - (G137 + H137 + I137 + J137 + S137 )</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R137" t="s">
@@ -10134,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="P138" s="3">
-        <f>J138 + M138   +  N138 - (G138 + H138 + I138 + J138 + S138 )</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R138" t="s">
@@ -10184,7 +10279,7 @@
         <v>-15</v>
       </c>
       <c r="P139" s="3">
-        <f>J139 + M139   +  N139 - (G139 + H139 + I139 + J139 + S139 )</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="R139" t="s">
@@ -10234,7 +10329,7 @@
         <v>0</v>
       </c>
       <c r="P140" s="3">
-        <f>J140 + M140   +  N140 - (G140 + H140 + I140 + J140 + S140 )</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="R140" t="s">
@@ -10273,7 +10368,9 @@
         <v>0</v>
       </c>
       <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
+      <c r="L141" s="2">
+        <v>35</v>
+      </c>
       <c r="M141" s="2">
         <v>0</v>
       </c>
@@ -10284,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="P141" s="3">
-        <f>J141 + M141   +  N141 - (G141 + H141 + I141 + J141 + S141 )</f>
+        <f t="shared" si="4"/>
         <v>13.5</v>
       </c>
       <c r="R141" t="s">
@@ -10334,7 +10431,7 @@
         <v>-12</v>
       </c>
       <c r="P142" s="3">
-        <f>J142 + M142   +  N142 - (G142 + H142 + I142 + J142 + S142 )</f>
+        <f t="shared" si="4"/>
         <v>15.5</v>
       </c>
       <c r="R142" t="s">
@@ -10384,7 +10481,7 @@
         <v>-60</v>
       </c>
       <c r="P143" s="3">
-        <f>J143 + M143   +  N143 - (G143 + H143 + I143 + J143 + S143 )</f>
+        <f t="shared" si="4"/>
         <v>-7.5</v>
       </c>
       <c r="R143" t="s">
@@ -10434,7 +10531,7 @@
         <v>-27</v>
       </c>
       <c r="P144" s="3">
-        <f>J144 + M144   +  N144 - (G144 + H144 + I144 + J144 + S144 )</f>
+        <f t="shared" si="4"/>
         <v>-15</v>
       </c>
       <c r="R144" t="s">
@@ -10470,7 +10567,9 @@
         <v>0</v>
       </c>
       <c r="K145" s="2"/>
-      <c r="L145" s="2"/>
+      <c r="L145" s="2">
+        <v>15</v>
+      </c>
       <c r="M145" s="2">
         <v>0</v>
       </c>
@@ -10481,7 +10580,7 @@
         <v>-15</v>
       </c>
       <c r="P145" s="3">
-        <f>J145 + M145   +  N145 - (G145 + H145 + I145 + J145 + S145 )</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R145" t="s">
@@ -10528,7 +10627,7 @@
         <v>-15</v>
       </c>
       <c r="P146" s="3">
-        <f>J146 + M146   +  N146 - (G146 + H146 + I146 + J146 + S146 )</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R146" t="s">

--- a/GestorReceitas/Fevereiro/relatorioMensal_backup_fevereiro_20250317_215147.xlsx
+++ b/GestorReceitas/Fevereiro/relatorioMensal_backup_fevereiro_20250317_215147.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\Fevereiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61D2F66-5085-4D9C-B371-67AD6E72F4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5452F5-CFD6-44F7-A508-7C8494C93157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1395,7 +1395,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\€\ #,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1413,13 +1413,25 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1446,18 +1458,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="290">
@@ -3212,18 +3227,18 @@
   <dimension ref="A1:R146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15" hidden="1" customWidth="1"/>
+    <col min="4" max="10" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" hidden="1" customWidth="1"/>
     <col min="13" max="19" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3323,10 +3338,10 @@
         <v>0</v>
       </c>
       <c r="O2" s="3">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="P2" s="3">
-        <f t="shared" ref="P2:P33" si="0">J2 + M2   +  N2 - (G2 + H2 + I2 + J2 + S2 )</f>
+        <f>J2 + M2   +  N2 - (G2 + H2 + I2 + J2 + S2 )</f>
         <v>12</v>
       </c>
       <c r="R2" t="s">
@@ -3376,7 +3391,7 @@
         <v>30</v>
       </c>
       <c r="P3" s="3">
-        <f t="shared" si="0"/>
+        <f>J3 + M3   +  N3 - (G3 + H3 + I3 + J3 + S3 )</f>
         <v>27</v>
       </c>
       <c r="R3" t="s">
@@ -3426,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="3">
-        <f t="shared" si="0"/>
+        <f>J4 + M4   +  N4 - (G4 + H4 + I4 + J4 + S4 )</f>
         <v>0</v>
       </c>
       <c r="R4" t="s">
@@ -3470,14 +3485,15 @@
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>60</v>
+        <f>60-15</f>
+        <v>45</v>
       </c>
       <c r="O5" s="3">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>J5 + M5   +  N5 - (G5 + H5 + I5 + J5 + S5 )</f>
+        <v>10</v>
       </c>
       <c r="R5" t="s">
         <v>35</v>
@@ -3522,14 +3538,15 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>54</v>
+        <f>54-44</f>
+        <v>10</v>
       </c>
       <c r="O6" s="3">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <f>J6 + M6   +  N6 - (G6 + H6 + I6 + J6 + S6 )</f>
+        <v>-5</v>
       </c>
       <c r="R6" t="s">
         <v>38</v>
@@ -3574,14 +3591,15 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>54.5</v>
+        <f>54.5-15</f>
+        <v>39.5</v>
       </c>
       <c r="O7" s="3">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" si="0"/>
-        <v>34.5</v>
+        <f>J7 + M7   +  N7 - (G7 + H7 + I7 + J7 + S7 )</f>
+        <v>19.5</v>
       </c>
       <c r="R7" t="s">
         <v>41</v>
@@ -3627,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" si="0"/>
+        <f>J8 + M8   +  N8 - (G8 + H8 + I8 + J8 + S8 )</f>
         <v>0</v>
       </c>
       <c r="R8" t="s">
@@ -3671,14 +3689,15 @@
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>15</v>
+        <f>15-15</f>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" si="0"/>
-        <v>-5</v>
+        <f>J9 + M9   +  N9 - (G9 + H9 + I9 + J9 + S9 )</f>
+        <v>-20</v>
       </c>
       <c r="R9" t="s">
         <v>19</v>
@@ -3721,14 +3740,15 @@
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>60</v>
+        <f>60-15</f>
+        <v>45</v>
       </c>
       <c r="O10" s="3">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>J10 + M10   +  N10 - (G10 + H10 + I10 + J10 + S10 )</f>
+        <v>0</v>
       </c>
       <c r="R10" t="s">
         <v>49</v>
@@ -3777,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="3">
-        <f t="shared" si="0"/>
+        <f>J11 + M11   +  N11 - (G11 + H11 + I11 + J11 + S11 )</f>
         <v>15</v>
       </c>
       <c r="R11" t="s">
@@ -3827,7 +3847,7 @@
         <v>-15</v>
       </c>
       <c r="P12" s="3">
-        <f t="shared" si="0"/>
+        <f>J12 + M12   +  N12 - (G12 + H12 + I12 + J12 + S12 )</f>
         <v>0</v>
       </c>
       <c r="R12" t="s">
@@ -3874,10 +3894,10 @@
         <v>15</v>
       </c>
       <c r="O13" s="3">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="P13" s="3">
-        <f t="shared" si="0"/>
+        <f>J13 + M13   +  N13 - (G13 + H13 + I13 + J13 + S13 )</f>
         <v>0</v>
       </c>
       <c r="R13" t="s">
@@ -3923,14 +3943,15 @@
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>69.5</v>
+        <f>69.5-15</f>
+        <v>54.5</v>
       </c>
       <c r="O14" s="3">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" si="0"/>
-        <v>34.5</v>
+        <f>J14 + M14   +  N14 - (G14 + H14 + I14 + J14 + S14 )</f>
+        <v>19.5</v>
       </c>
       <c r="R14" t="s">
         <v>41</v>
@@ -3973,14 +3994,15 @@
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>30</v>
+        <f>30-15</f>
+        <v>15</v>
       </c>
       <c r="O15" s="3">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>J15 + M15   +  N15 - (G15 + H15 + I15 + J15 + S15 )</f>
+        <v>0</v>
       </c>
       <c r="R15" t="s">
         <v>64</v>
@@ -4031,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="3">
-        <f t="shared" si="0"/>
+        <f>J16 + M16   +  N16 - (G16 + H16 + I16 + J16 + S16 )</f>
         <v>0</v>
       </c>
       <c r="R16" t="s">
@@ -4081,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" si="0"/>
+        <f>J17 + M17   +  N17 - (G17 + H17 + I17 + J17 + S17 )</f>
         <v>0</v>
       </c>
     </row>
@@ -4128,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" si="0"/>
+        <f>J18 + M18   +  N18 - (G18 + H18 + I18 + J18 + S18 )</f>
         <v>0</v>
       </c>
       <c r="R18" t="s">
@@ -4178,7 +4200,7 @@
         <v>-15</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" si="0"/>
+        <f>J19 + M19   +  N19 - (G19 + H19 + I19 + J19 + S19 )</f>
         <v>-8</v>
       </c>
       <c r="R19" t="s">
@@ -4228,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <f t="shared" si="0"/>
+        <f>J20 + M20   +  N20 - (G20 + H20 + I20 + J20 + S20 )</f>
         <v>2</v>
       </c>
       <c r="R20" t="s">
@@ -4278,7 +4300,7 @@
         <v>73</v>
       </c>
       <c r="P21" s="3">
-        <f t="shared" si="0"/>
+        <f>J21 + M21   +  N21 - (G21 + H21 + I21 + J21 + S21 )</f>
         <v>0</v>
       </c>
       <c r="R21" t="s">
@@ -4330,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <f t="shared" si="0"/>
+        <f>J22 + M22   +  N22 - (G22 + H22 + I22 + J22 + S22 )</f>
         <v>0</v>
       </c>
       <c r="R22" t="s">
@@ -4382,7 +4404,7 @@
         <v>10</v>
       </c>
       <c r="P23" s="3">
-        <f t="shared" si="0"/>
+        <f>J23 + M23   +  N23 - (G23 + H23 + I23 + J23 + S23 )</f>
         <v>15</v>
       </c>
       <c r="R23" t="s">
@@ -4429,7 +4451,7 @@
         <v>-60</v>
       </c>
       <c r="P24" s="3">
-        <f t="shared" si="0"/>
+        <f>J24 + M24   +  N24 - (G24 + H24 + I24 + J24 + S24 )</f>
         <v>-19</v>
       </c>
       <c r="R24" t="s">
@@ -4473,14 +4495,15 @@
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>30</v>
+        <f>30-15</f>
+        <v>15</v>
       </c>
       <c r="O25" s="3">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="P25" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>J25 + M25   +  N25 - (G25 + H25 + I25 + J25 + S25 )</f>
+        <v>0</v>
       </c>
       <c r="R25" t="s">
         <v>94</v>
@@ -4526,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <f t="shared" si="0"/>
+        <f>J26 + M26   +  N26 - (G26 + H26 + I26 + J26 + S26 )</f>
         <v>0</v>
       </c>
       <c r="R26" t="s">
@@ -4576,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
-        <f t="shared" si="0"/>
+        <f>J27 + M27   +  N27 - (G27 + H27 + I27 + J27 + S27 )</f>
         <v>-3.75</v>
       </c>
       <c r="R27" t="s">
@@ -4628,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="3">
-        <f t="shared" si="0"/>
+        <f>J28 + M28   +  N28 - (G28 + H28 + I28 + J28 + S28 )</f>
         <v>12</v>
       </c>
       <c r="R28" t="s">
@@ -4678,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
-        <f t="shared" si="0"/>
+        <f>J29 + M29   +  N29 - (G29 + H29 + I29 + J29 + S29 )</f>
         <v>0</v>
       </c>
       <c r="R29" t="s">
@@ -4728,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="3">
-        <f t="shared" si="0"/>
+        <f>J30 + M30   +  N30 - (G30 + H30 + I30 + J30 + S30 )</f>
         <v>12</v>
       </c>
       <c r="R30" t="s">
@@ -4778,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="3">
-        <f t="shared" si="0"/>
+        <f>J31 + M31   +  N31 - (G31 + H31 + I31 + J31 + S31 )</f>
         <v>0</v>
       </c>
       <c r="R31" t="s">
@@ -4827,10 +4850,10 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
-        <f t="shared" si="0"/>
+        <f>J32 + M32   +  N32 - (G32 + H32 + I32 + J32 + S32 )</f>
         <v>22</v>
       </c>
       <c r="R32" t="s">
@@ -4882,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <f t="shared" si="0"/>
+        <f>J33 + M33   +  N33 - (G33 + H33 + I33 + J33 + S33 )</f>
         <v>12</v>
       </c>
       <c r="R33" t="s">
@@ -4932,7 +4955,7 @@
         <v>-20</v>
       </c>
       <c r="P34" s="3">
-        <f t="shared" ref="P34:P65" si="1">J34 + M34   +  N34 - (G34 + H34 + I34 + J34 + S34 )</f>
+        <f>J34 + M34   +  N34 - (G34 + H34 + I34 + J34 + S34 )</f>
         <v>-14</v>
       </c>
       <c r="R34" t="s">
@@ -4984,7 +5007,7 @@
         <v>45</v>
       </c>
       <c r="P35" s="3">
-        <f t="shared" si="1"/>
+        <f>J35 + M35   +  N35 - (G35 + H35 + I35 + J35 + S35 )</f>
         <v>-45</v>
       </c>
       <c r="R35" t="s">
@@ -5028,14 +5051,15 @@
         <v>0</v>
       </c>
       <c r="N36" s="2">
-        <v>84</v>
+        <f>84-34-49</f>
+        <v>1</v>
       </c>
       <c r="O36" s="3">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="P36" s="3">
-        <f t="shared" si="1"/>
-        <v>54</v>
+        <f>J36 + M36   +  N36 - (G36 + H36 + I36 + J36 + S36 )</f>
+        <v>-29</v>
       </c>
       <c r="R36" t="s">
         <v>126</v>
@@ -5081,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="3">
-        <f t="shared" si="1"/>
+        <f>J37 + M37   +  N37 - (G37 + H37 + I37 + J37 + S37 )</f>
         <v>0</v>
       </c>
       <c r="R37" t="s">
@@ -5131,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="3">
-        <f t="shared" si="1"/>
+        <f>J38 + M38   +  N38 - (G38 + H38 + I38 + J38 + S38 )</f>
         <v>-15</v>
       </c>
       <c r="R38" t="s">
@@ -5181,7 +5205,7 @@
         <v>27.5</v>
       </c>
       <c r="P39" s="3">
-        <f t="shared" si="1"/>
+        <f>J39 + M39   +  N39 - (G39 + H39 + I39 + J39 + S39 )</f>
         <v>-27</v>
       </c>
       <c r="R39" t="s">
@@ -5225,14 +5249,15 @@
         <v>6</v>
       </c>
       <c r="N40" s="2">
-        <v>15</v>
+        <f>15-15</f>
+        <v>0</v>
       </c>
       <c r="O40" s="3">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="P40" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f>J40 + M40   +  N40 - (G40 + H40 + I40 + J40 + S40 )</f>
+        <v>0</v>
       </c>
       <c r="R40" t="s">
         <v>138</v>
@@ -5281,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <f t="shared" si="1"/>
+        <f>J41 + M41   +  N41 - (G41 + H41 + I41 + J41 + S41 )</f>
         <v>0</v>
       </c>
       <c r="R41" t="s">
@@ -5333,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
-        <f t="shared" si="1"/>
+        <f>J42 + M42   +  N42 - (G42 + H42 + I42 + J42 + S42 )</f>
         <v>15</v>
       </c>
       <c r="R42" t="s">
@@ -5379,14 +5404,15 @@
         <v>0</v>
       </c>
       <c r="N43" s="2">
-        <v>55</v>
+        <f>55-15</f>
+        <v>40</v>
       </c>
       <c r="O43" s="3">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>J43 + M43   +  N43 - (G43 + H43 + I43 + J43 + S43 )</f>
+        <v>-5</v>
       </c>
       <c r="R43" t="s">
         <v>147</v>
@@ -5432,10 +5458,10 @@
         <v>0</v>
       </c>
       <c r="O44" s="3">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
-        <f t="shared" si="1"/>
+        <f>J44 + M44   +  N44 - (G44 + H44 + I44 + J44 + S44 )</f>
         <v>0</v>
       </c>
       <c r="R44" t="s">
@@ -5481,14 +5507,15 @@
         <v>0</v>
       </c>
       <c r="N45" s="2">
-        <v>34.5</v>
+        <f>34.5-15</f>
+        <v>19.5</v>
       </c>
       <c r="O45" s="3">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
-        <f t="shared" si="1"/>
-        <v>34.5</v>
+        <f>J45 + M45   +  N45 - (G45 + H45 + I45 + J45 + S45 )</f>
+        <v>19.5</v>
       </c>
       <c r="R45" t="s">
         <v>153</v>
@@ -5539,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <f t="shared" si="1"/>
+        <f>J46 + M46   +  N46 - (G46 + H46 + I46 + J46 + S46 )</f>
         <v>15</v>
       </c>
       <c r="R46" t="s">
@@ -5586,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <f t="shared" si="1"/>
+        <f>J47 + M47   +  N47 - (G47 + H47 + I47 + J47 + S47 )</f>
         <v>0</v>
       </c>
       <c r="R47" t="s">
@@ -5638,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <f t="shared" si="1"/>
+        <f>J48 + M48   +  N48 - (G48 + H48 + I48 + J48 + S48 )</f>
         <v>12</v>
       </c>
       <c r="R48" t="s">
@@ -5688,7 +5715,7 @@
         <v>67.5</v>
       </c>
       <c r="P49" s="3">
-        <f t="shared" si="1"/>
+        <f>J49 + M49   +  N49 - (G49 + H49 + I49 + J49 + S49 )</f>
         <v>-15</v>
       </c>
       <c r="R49" t="s">
@@ -5737,10 +5764,10 @@
         <v>0</v>
       </c>
       <c r="O50" s="3">
-        <v>-37.5</v>
+        <v>-22.5</v>
       </c>
       <c r="P50" s="3">
-        <f t="shared" si="1"/>
+        <f>J50 + M50   +  N50 - (G50 + H50 + I50 + J50 + S50 )</f>
         <v>-45</v>
       </c>
       <c r="R50" t="s">
@@ -5786,14 +5813,15 @@
         <v>0</v>
       </c>
       <c r="N51" s="2">
-        <v>88</v>
+        <f>88-2</f>
+        <v>86</v>
       </c>
       <c r="O51" s="3">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P51" s="3">
-        <f t="shared" si="1"/>
-        <v>43</v>
+        <f>J51 + M51   +  N51 - (G51 + H51 + I51 + J51 + S51 )</f>
+        <v>41</v>
       </c>
       <c r="R51" t="s">
         <v>171</v>
@@ -5846,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
-        <f t="shared" si="1"/>
+        <f>J52 + M52   +  N52 - (G52 + H52 + I52 + J52 + S52 )</f>
         <v>38</v>
       </c>
       <c r="R52" t="s">
@@ -5896,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="3">
-        <f t="shared" si="1"/>
+        <f>J53 + M53   +  N53 - (G53 + H53 + I53 + J53 + S53 )</f>
         <v>-15</v>
       </c>
       <c r="R53" t="s">
@@ -5942,14 +5970,15 @@
         <v>0</v>
       </c>
       <c r="N54" s="2">
-        <v>30</v>
+        <f>30-15</f>
+        <v>15</v>
       </c>
       <c r="O54" s="3">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f>J54 + M54   +  N54 - (G54 + H54 + I54 + J54 + S54 )</f>
+        <v>15</v>
       </c>
       <c r="R54" t="s">
         <v>180</v>
@@ -5995,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="3">
-        <f t="shared" si="1"/>
+        <f>J55 + M55   +  N55 - (G55 + H55 + I55 + J55 + S55 )</f>
         <v>15</v>
       </c>
       <c r="R55" t="s">
@@ -6045,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="3">
-        <f t="shared" si="1"/>
+        <f>J56 + M56   +  N56 - (G56 + H56 + I56 + J56 + S56 )</f>
         <v>15</v>
       </c>
       <c r="R56" t="s">
@@ -6094,10 +6123,10 @@
         <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
-        <f t="shared" si="1"/>
+        <f>J57 + M57   +  N57 - (G57 + H57 + I57 + J57 + S57 )</f>
         <v>0</v>
       </c>
       <c r="R57" t="s">
@@ -6141,14 +6170,15 @@
         <v>0</v>
       </c>
       <c r="N58" s="2">
-        <v>83</v>
+        <f>83-38</f>
+        <v>45</v>
       </c>
       <c r="O58" s="3">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
-        <f t="shared" si="1"/>
-        <v>64</v>
+        <f>J58 + M58   +  N58 - (G58 + H58 + I58 + J58 + S58 )</f>
+        <v>26</v>
       </c>
       <c r="R58" t="s">
         <v>201</v>
@@ -6197,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <f t="shared" si="1"/>
+        <f>J59 + M59   +  N59 - (G59 + H59 + I59 + J59 + S59 )</f>
         <v>12</v>
       </c>
       <c r="R59" t="s">
@@ -6241,14 +6271,15 @@
         <v>0</v>
       </c>
       <c r="N60" s="2">
-        <v>85</v>
+        <f>85-15</f>
+        <v>70</v>
       </c>
       <c r="O60" s="3">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="P60" s="3">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f>J60 + M60   +  N60 - (G60 + H60 + I60 + J60 + S60 )</f>
+        <v>25</v>
       </c>
       <c r="R60" t="s">
         <v>198</v>
@@ -6299,7 +6330,7 @@
         <v>-80</v>
       </c>
       <c r="P61" s="3">
-        <f t="shared" si="1"/>
+        <f>J61 + M61   +  N61 - (G61 + H61 + I61 + J61 + S61 )</f>
         <v>-59</v>
       </c>
       <c r="R61" t="s">
@@ -6343,14 +6374,15 @@
         <v>0</v>
       </c>
       <c r="N62" s="2">
-        <v>33.5</v>
+        <f>33.5-5</f>
+        <v>28.5</v>
       </c>
       <c r="O62" s="3">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
-        <f t="shared" si="1"/>
-        <v>-31.5</v>
+        <f>J62 + M62   +  N62 - (G62 + H62 + I62 + J62 + S62 )</f>
+        <v>-36.5</v>
       </c>
       <c r="R62" t="s">
         <v>192</v>
@@ -6393,21 +6425,22 @@
         <v>0</v>
       </c>
       <c r="N63" s="2">
-        <v>50</v>
+        <f>50-27</f>
+        <v>23</v>
       </c>
       <c r="O63" s="3">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="P63" s="3">
-        <f t="shared" si="1"/>
-        <v>27</v>
+        <f>J63 + M63   +  N63 - (G63 + H63 + I63 + J63 + S63 )</f>
+        <v>0</v>
       </c>
       <c r="R63" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B64" t="s">
@@ -6443,14 +6476,15 @@
         <v>0</v>
       </c>
       <c r="N64" s="2">
-        <v>8</v>
+        <f>8-8</f>
+        <v>0</v>
       </c>
       <c r="O64" s="3">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="P64" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>J64 + M64   +  N64 - (G64 + H64 + I64 + J64 + S64 )</f>
+        <v>-8</v>
       </c>
       <c r="R64" t="s">
         <v>210</v>
@@ -6501,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="3">
-        <f t="shared" si="1"/>
+        <f>J65 + M65   +  N65 - (G65 + H65 + I65 + J65 + S65 )</f>
         <v>0</v>
       </c>
       <c r="R65" t="s">
@@ -6551,7 +6585,7 @@
         <v>73</v>
       </c>
       <c r="P66" s="3">
-        <f t="shared" ref="P66:P97" si="2">J66 + M66   +  N66 - (G66 + H66 + I66 + J66 + S66 )</f>
+        <f>J66 + M66   +  N66 - (G66 + H66 + I66 + J66 + S66 )</f>
         <v>0</v>
       </c>
       <c r="R66" t="s">
@@ -6601,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="P67" s="3">
-        <f t="shared" si="2"/>
+        <f>J67 + M67   +  N67 - (G67 + H67 + I67 + J67 + S67 )</f>
         <v>0</v>
       </c>
       <c r="R67" t="s">
@@ -6653,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="3">
-        <f t="shared" si="2"/>
+        <f>J68 + M68   +  N68 - (G68 + H68 + I68 + J68 + S68 )</f>
         <v>0</v>
       </c>
       <c r="R68" t="s">
@@ -6705,7 +6739,7 @@
         <v>20</v>
       </c>
       <c r="P69" s="3">
-        <f t="shared" si="2"/>
+        <f>J69 + M69   +  N69 - (G69 + H69 + I69 + J69 + S69 )</f>
         <v>-23</v>
       </c>
       <c r="R69" t="s">
@@ -6749,14 +6783,15 @@
         <v>0</v>
       </c>
       <c r="N70" s="2">
-        <v>37</v>
+        <f>37-14</f>
+        <v>23</v>
       </c>
       <c r="O70" s="3">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f>J70 + M70   +  N70 - (G70 + H70 + I70 + J70 + S70 )</f>
+        <v>0</v>
       </c>
       <c r="R70" t="s">
         <v>227</v>
@@ -6807,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="P71" s="3">
-        <f t="shared" si="2"/>
+        <f>J71 + M71   +  N71 - (G71 + H71 + I71 + J71 + S71 )</f>
         <v>0</v>
       </c>
       <c r="R71" t="s">
@@ -6857,7 +6892,7 @@
         <v>-68</v>
       </c>
       <c r="P72" s="3">
-        <f t="shared" si="2"/>
+        <f>J72 + M72   +  N72 - (G72 + H72 + I72 + J72 + S72 )</f>
         <v>-45</v>
       </c>
       <c r="R72" t="s">
@@ -6903,14 +6938,15 @@
         <v>0</v>
       </c>
       <c r="N73" s="2">
-        <v>66</v>
+        <f>66-15</f>
+        <v>51</v>
       </c>
       <c r="O73" s="3">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="P73" s="3">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f>J73 + M73   +  N73 - (G73 + H73 + I73 + J73 + S73 )</f>
+        <v>6</v>
       </c>
       <c r="R73" t="s">
         <v>236</v>
@@ -6959,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="P74" s="3">
-        <f t="shared" si="2"/>
+        <f>J74 + M74   +  N74 - (G74 + H74 + I74 + J74 + S74 )</f>
         <v>0</v>
       </c>
       <c r="R74" t="s">
@@ -7003,14 +7039,15 @@
         <v>0</v>
       </c>
       <c r="N75" s="2">
-        <v>7.5</v>
+        <f>7.5-7.5</f>
+        <v>0</v>
       </c>
       <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <f>J75 + M75   +  N75 - (G75 + H75 + I75 + J75 + S75 )</f>
         <v>-15</v>
-      </c>
-      <c r="P75" s="3">
-        <f t="shared" si="2"/>
-        <v>-7.5</v>
       </c>
       <c r="R75" t="s">
         <v>242</v>
@@ -7055,14 +7092,15 @@
         <v>0</v>
       </c>
       <c r="N76" s="2">
-        <v>30</v>
+        <f>30-15</f>
+        <v>15</v>
       </c>
       <c r="O76" s="3">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="P76" s="3">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f>J76 + M76   +  N76 - (G76 + H76 + I76 + J76 + S76 )</f>
+        <v>0</v>
       </c>
       <c r="R76" t="s">
         <v>247</v>
@@ -7105,13 +7143,14 @@
         <v>0</v>
       </c>
       <c r="N77" s="2">
+        <f>49-49</f>
         <v>0</v>
       </c>
       <c r="O77" s="3">
-        <v>-49</v>
+        <v>0</v>
       </c>
       <c r="P77" s="3">
-        <f t="shared" si="2"/>
+        <f>J77 + M77   +  N77 - (G77 + H77 + I77 + J77 + S77 )</f>
         <v>-45</v>
       </c>
       <c r="R77" t="s">
@@ -7155,14 +7194,15 @@
         <v>0</v>
       </c>
       <c r="N78" s="2">
-        <v>45.5</v>
+        <f>45.5-12</f>
+        <v>33.5</v>
       </c>
       <c r="O78" s="3">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="P78" s="3">
-        <f t="shared" si="2"/>
-        <v>15.5</v>
+        <f>J78 + M78   +  N78 - (G78 + H78 + I78 + J78 + S78 )</f>
+        <v>3.5</v>
       </c>
       <c r="R78" t="s">
         <v>252</v>
@@ -7211,7 +7251,7 @@
         <v>-80</v>
       </c>
       <c r="P79" s="3">
-        <f t="shared" si="2"/>
+        <f>J79 + M79   +  N79 - (G79 + H79 + I79 + J79 + S79 )</f>
         <v>-31.5</v>
       </c>
       <c r="R79" t="s">
@@ -7261,7 +7301,7 @@
         <v>-22.5</v>
       </c>
       <c r="P80" s="3">
-        <f t="shared" si="2"/>
+        <f>J80 + M80   +  N80 - (G80 + H80 + I80 + J80 + S80 )</f>
         <v>15</v>
       </c>
       <c r="R80" t="s">
@@ -7313,7 +7353,7 @@
         <v>-15</v>
       </c>
       <c r="P81" s="3">
-        <f t="shared" si="2"/>
+        <f>J81 + M81   +  N81 - (G81 + H81 + I81 + J81 + S81 )</f>
         <v>12</v>
       </c>
       <c r="R81" t="s">
@@ -7365,7 +7405,7 @@
         <v>-15</v>
       </c>
       <c r="P82" s="3">
-        <f t="shared" si="2"/>
+        <f>J82 + M82   +  N82 - (G82 + H82 + I82 + J82 + S82 )</f>
         <v>47</v>
       </c>
       <c r="R82" t="s">
@@ -7415,7 +7455,7 @@
         <v>-12</v>
       </c>
       <c r="P83" s="3">
-        <f t="shared" si="2"/>
+        <f>J83 + M83   +  N83 - (G83 + H83 + I83 + J83 + S83 )</f>
         <v>24</v>
       </c>
       <c r="R83" t="s">
@@ -7467,7 +7507,7 @@
         <v>-12</v>
       </c>
       <c r="P84" s="3">
-        <f t="shared" si="2"/>
+        <f>J84 + M84   +  N84 - (G84 + H84 + I84 + J84 + S84 )</f>
         <v>26</v>
       </c>
       <c r="R84" t="s">
@@ -7519,7 +7559,7 @@
         <v>-15</v>
       </c>
       <c r="P85" s="3">
-        <f t="shared" si="2"/>
+        <f>J85 + M85   +  N85 - (G85 + H85 + I85 + J85 + S85 )</f>
         <v>19.5</v>
       </c>
       <c r="R85" t="s">
@@ -7569,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="P86" s="3">
-        <f t="shared" si="2"/>
+        <f>J86 + M86   +  N86 - (G86 + H86 + I86 + J86 + S86 )</f>
         <v>0</v>
       </c>
       <c r="R86" t="s">
@@ -7621,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="P87" s="3">
-        <f t="shared" si="2"/>
+        <f>J87 + M87   +  N87 - (G87 + H87 + I87 + J87 + S87 )</f>
         <v>0</v>
       </c>
       <c r="R87" t="s">
@@ -7673,7 +7713,7 @@
         <v>-15</v>
       </c>
       <c r="P88" s="3">
-        <f t="shared" si="2"/>
+        <f>J88 + M88   +  N88 - (G88 + H88 + I88 + J88 + S88 )</f>
         <v>21</v>
       </c>
       <c r="R88" t="s">
@@ -7725,7 +7765,7 @@
         <v>-15</v>
       </c>
       <c r="P89" s="3">
-        <f t="shared" si="2"/>
+        <f>J89 + M89   +  N89 - (G89 + H89 + I89 + J89 + S89 )</f>
         <v>0</v>
       </c>
       <c r="R89" t="s">
@@ -7779,7 +7819,7 @@
         <v>-15</v>
       </c>
       <c r="P90" s="3">
-        <f t="shared" si="2"/>
+        <f>J90 + M90   +  N90 - (G90 + H90 + I90 + J90 + S90 )</f>
         <v>-31.5</v>
       </c>
       <c r="R90" t="s">
@@ -7829,7 +7869,7 @@
         <v>-2</v>
       </c>
       <c r="P91" s="3">
-        <f t="shared" si="2"/>
+        <f>J91 + M91   +  N91 - (G91 + H91 + I91 + J91 + S91 )</f>
         <v>0</v>
       </c>
       <c r="R91" t="s">
@@ -7881,7 +7921,7 @@
         <v>15</v>
       </c>
       <c r="P92" s="3">
-        <f t="shared" si="2"/>
+        <f>J92 + M92   +  N92 - (G92 + H92 + I92 + J92 + S92 )</f>
         <v>15</v>
       </c>
       <c r="R92" t="s">
@@ -7931,7 +7971,7 @@
         <v>-19</v>
       </c>
       <c r="P93" s="3">
-        <f t="shared" si="2"/>
+        <f>J93 + M93   +  N93 - (G93 + H93 + I93 + J93 + S93 )</f>
         <v>4</v>
       </c>
       <c r="R93" t="s">
@@ -7981,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
-        <f t="shared" si="2"/>
+        <f>J94 + M94   +  N94 - (G94 + H94 + I94 + J94 + S94 )</f>
         <v>0</v>
       </c>
       <c r="R94" t="s">
@@ -8033,7 +8073,7 @@
         <v>15</v>
       </c>
       <c r="P95" s="3">
-        <f t="shared" si="2"/>
+        <f>J95 + M95   +  N95 - (G95 + H95 + I95 + J95 + S95 )</f>
         <v>-15</v>
       </c>
       <c r="R95" t="s">
@@ -8083,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <f t="shared" si="2"/>
+        <f>J96 + M96   +  N96 - (G96 + H96 + I96 + J96 + S96 )</f>
         <v>-23</v>
       </c>
       <c r="R96" t="s">
@@ -8133,7 +8173,7 @@
         <v>0</v>
       </c>
       <c r="P97" s="3">
-        <f t="shared" si="2"/>
+        <f>J97 + M97   +  N97 - (G97 + H97 + I97 + J97 + S97 )</f>
         <v>0</v>
       </c>
       <c r="R97" t="s">
@@ -8183,7 +8223,7 @@
         <v>-34.25</v>
       </c>
       <c r="P98" s="3">
-        <f t="shared" ref="P98:P129" si="3">J98 + M98   +  N98 - (G98 + H98 + I98 + J98 + S98 )</f>
+        <f>J98 + M98   +  N98 - (G98 + H98 + I98 + J98 + S98 )</f>
         <v>4.25</v>
       </c>
       <c r="R98" t="s">
@@ -8235,7 +8275,7 @@
         <v>-15</v>
       </c>
       <c r="P99" s="3">
-        <f t="shared" si="3"/>
+        <f>J99 + M99   +  N99 - (G99 + H99 + I99 + J99 + S99 )</f>
         <v>32</v>
       </c>
       <c r="R99" t="s">
@@ -8289,7 +8329,7 @@
         <v>-27</v>
       </c>
       <c r="P100" s="3">
-        <f t="shared" si="3"/>
+        <f>J100 + M100   +  N100 - (G100 + H100 + I100 + J100 + S100 )</f>
         <v>68</v>
       </c>
       <c r="R100" t="s">
@@ -8341,7 +8381,7 @@
         <v>-15</v>
       </c>
       <c r="P101" s="3">
-        <f t="shared" si="3"/>
+        <f>J101 + M101   +  N101 - (G101 + H101 + I101 + J101 + S101 )</f>
         <v>-15</v>
       </c>
       <c r="R101" t="s">
@@ -8391,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <f t="shared" si="3"/>
+        <f>J102 + M102   +  N102 - (G102 + H102 + I102 + J102 + S102 )</f>
         <v>-30</v>
       </c>
       <c r="R102" t="s">
@@ -8443,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="P103" s="3">
-        <f t="shared" si="3"/>
+        <f>J103 + M103   +  N103 - (G103 + H103 + I103 + J103 + S103 )</f>
         <v>33</v>
       </c>
       <c r="R103" t="s">
@@ -8495,7 +8535,7 @@
         <v>3</v>
       </c>
       <c r="P104" s="3">
-        <f t="shared" si="3"/>
+        <f>J104 + M104   +  N104 - (G104 + H104 + I104 + J104 + S104 )</f>
         <v>0</v>
       </c>
       <c r="R104" t="s">
@@ -8545,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="P105" s="3">
-        <f t="shared" si="3"/>
+        <f>J105 + M105   +  N105 - (G105 + H105 + I105 + J105 + S105 )</f>
         <v>-1.5</v>
       </c>
       <c r="R105" t="s">
@@ -8595,7 +8635,7 @@
         <v>-28</v>
       </c>
       <c r="P106" s="3">
-        <f t="shared" si="3"/>
+        <f>J106 + M106   +  N106 - (G106 + H106 + I106 + J106 + S106 )</f>
         <v>38</v>
       </c>
       <c r="R106" t="s">
@@ -8647,7 +8687,7 @@
         <v>-15</v>
       </c>
       <c r="P107" s="3">
-        <f t="shared" si="3"/>
+        <f>J107 + M107   +  N107 - (G107 + H107 + I107 + J107 + S107 )</f>
         <v>-15</v>
       </c>
       <c r="R107" t="s">
@@ -8699,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="P108" s="3">
-        <f t="shared" si="3"/>
+        <f>J108 + M108   +  N108 - (G108 + H108 + I108 + J108 + S108 )</f>
         <v>15</v>
       </c>
       <c r="R108" t="s">
@@ -8753,7 +8793,7 @@
         <v>-15</v>
       </c>
       <c r="P109" s="3">
-        <f t="shared" si="3"/>
+        <f>J109 + M109   +  N109 - (G109 + H109 + I109 + J109 + S109 )</f>
         <v>-25.5</v>
       </c>
       <c r="R109" t="s">
@@ -8805,7 +8845,7 @@
         <v>30</v>
       </c>
       <c r="P110" s="3">
-        <f t="shared" si="3"/>
+        <f>J110 + M110   +  N110 - (G110 + H110 + I110 + J110 + S110 )</f>
         <v>-15</v>
       </c>
       <c r="R110" t="s">
@@ -8855,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="P111" s="3">
-        <f t="shared" si="3"/>
+        <f>J111 + M111   +  N111 - (G111 + H111 + I111 + J111 + S111 )</f>
         <v>-73</v>
       </c>
       <c r="R111" t="s">
@@ -8905,7 +8945,7 @@
         <v>-21</v>
       </c>
       <c r="P112" s="3">
-        <f t="shared" si="3"/>
+        <f>J112 + M112   +  N112 - (G112 + H112 + I112 + J112 + S112 )</f>
         <v>-4</v>
       </c>
       <c r="R112" t="s">
@@ -8959,7 +8999,7 @@
         <v>0</v>
       </c>
       <c r="P113" s="3">
-        <f t="shared" si="3"/>
+        <f>J113 + M113   +  N113 - (G113 + H113 + I113 + J113 + S113 )</f>
         <v>25</v>
       </c>
       <c r="R113" t="s">
@@ -9011,7 +9051,7 @@
         <v>-72</v>
       </c>
       <c r="P114" s="3">
-        <f t="shared" si="3"/>
+        <f>J114 + M114   +  N114 - (G114 + H114 + I114 + J114 + S114 )</f>
         <v>-30</v>
       </c>
       <c r="R114" t="s">
@@ -9061,7 +9101,7 @@
         <v>-27</v>
       </c>
       <c r="P115" s="3">
-        <f t="shared" si="3"/>
+        <f>J115 + M115   +  N115 - (G115 + H115 + I115 + J115 + S115 )</f>
         <v>209</v>
       </c>
       <c r="Q115" t="s">
@@ -9111,7 +9151,7 @@
         <v>-68.5</v>
       </c>
       <c r="P116" s="3">
-        <f t="shared" si="3"/>
+        <f>J116 + M116   +  N116 - (G116 + H116 + I116 + J116 + S116 )</f>
         <v>26.5</v>
       </c>
       <c r="R116" t="s">
@@ -9163,7 +9203,7 @@
         <v>-43.5</v>
       </c>
       <c r="P117" s="3">
-        <f t="shared" si="3"/>
+        <f>J117 + M117   +  N117 - (G117 + H117 + I117 + J117 + S117 )</f>
         <v>-15</v>
       </c>
       <c r="R117" t="s">
@@ -9215,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="P118" s="3">
-        <f t="shared" si="3"/>
+        <f>J118 + M118   +  N118 - (G118 + H118 + I118 + J118 + S118 )</f>
         <v>0</v>
       </c>
       <c r="R118" t="s">
@@ -9265,7 +9305,7 @@
         <v>67.5</v>
       </c>
       <c r="P119" s="3">
-        <f t="shared" si="3"/>
+        <f>J119 + M119   +  N119 - (G119 + H119 + I119 + J119 + S119 )</f>
         <v>-15</v>
       </c>
       <c r="R119" t="s">
@@ -9315,7 +9355,7 @@
         <v>-15</v>
       </c>
       <c r="P120" s="3">
-        <f t="shared" si="3"/>
+        <f>J120 + M120   +  N120 - (G120 + H120 + I120 + J120 + S120 )</f>
         <v>0</v>
       </c>
       <c r="R120" t="s">
@@ -9365,7 +9405,7 @@
         <v>23</v>
       </c>
       <c r="P121" s="3">
-        <f t="shared" si="3"/>
+        <f>J121 + M121   +  N121 - (G121 + H121 + I121 + J121 + S121 )</f>
         <v>0</v>
       </c>
       <c r="R121" t="s">
@@ -9415,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="P122" s="3">
-        <f t="shared" si="3"/>
+        <f>J122 + M122   +  N122 - (G122 + H122 + I122 + J122 + S122 )</f>
         <v>0</v>
       </c>
       <c r="R122" t="s">
@@ -9467,7 +9507,7 @@
         <v>50</v>
       </c>
       <c r="P123" s="3">
-        <f t="shared" si="3"/>
+        <f>J123 + M123   +  N123 - (G123 + H123 + I123 + J123 + S123 )</f>
         <v>-23</v>
       </c>
       <c r="R123" t="s">
@@ -9519,7 +9559,7 @@
         <v>-15</v>
       </c>
       <c r="P124" s="3">
-        <f t="shared" si="3"/>
+        <f>J124 + M124   +  N124 - (G124 + H124 + I124 + J124 + S124 )</f>
         <v>19</v>
       </c>
       <c r="R124" t="s">
@@ -9569,7 +9609,7 @@
         <v>-45</v>
       </c>
       <c r="P125" s="3">
-        <f t="shared" si="3"/>
+        <f>J125 + M125   +  N125 - (G125 + H125 + I125 + J125 + S125 )</f>
         <v>45</v>
       </c>
       <c r="R125" t="s">
@@ -9621,7 +9661,7 @@
         <v>-15</v>
       </c>
       <c r="P126" s="3">
-        <f t="shared" si="3"/>
+        <f>J126 + M126   +  N126 - (G126 + H126 + I126 + J126 + S126 )</f>
         <v>45</v>
       </c>
       <c r="R126" t="s">
@@ -9671,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="P127" s="3">
-        <f t="shared" si="3"/>
+        <f>J127 + M127   +  N127 - (G127 + H127 + I127 + J127 + S127 )</f>
         <v>0</v>
       </c>
       <c r="R127" t="s">
@@ -9721,7 +9761,7 @@
         <v>-10</v>
       </c>
       <c r="P128" s="3">
-        <f t="shared" si="3"/>
+        <f>J128 + M128   +  N128 - (G128 + H128 + I128 + J128 + S128 )</f>
         <v>2</v>
       </c>
       <c r="R128" t="s">
@@ -9771,7 +9811,7 @@
         <v>15</v>
       </c>
       <c r="P129" s="3">
-        <f t="shared" si="3"/>
+        <f>J129 + M129   +  N129 - (G129 + H129 + I129 + J129 + S129 )</f>
         <v>-15</v>
       </c>
       <c r="R129" t="s">
@@ -9823,7 +9863,7 @@
         <v>-15</v>
       </c>
       <c r="P130" s="3">
-        <f t="shared" ref="P130:P146" si="4">J130 + M130   +  N130 - (G130 + H130 + I130 + J130 + S130 )</f>
+        <f>J130 + M130   +  N130 - (G130 + H130 + I130 + J130 + S130 )</f>
         <v>15</v>
       </c>
       <c r="R130" t="s">
@@ -9875,7 +9915,7 @@
         <v>-15</v>
       </c>
       <c r="P131" s="3">
-        <f t="shared" si="4"/>
+        <f>J131 + M131   +  N131 - (G131 + H131 + I131 + J131 + S131 )</f>
         <v>35</v>
       </c>
       <c r="R131" t="s">
@@ -9925,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="P132" s="3">
-        <f t="shared" si="4"/>
+        <f>J132 + M132   +  N132 - (G132 + H132 + I132 + J132 + S132 )</f>
         <v>0</v>
       </c>
       <c r="R132" t="s">
@@ -9977,7 +10017,7 @@
         <v>36.5</v>
       </c>
       <c r="P133" s="3">
-        <f t="shared" si="4"/>
+        <f>J133 + M133   +  N133 - (G133 + H133 + I133 + J133 + S133 )</f>
         <v>-17</v>
       </c>
       <c r="R133" t="s">
@@ -10027,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="P134" s="3">
-        <f t="shared" si="4"/>
+        <f>J134 + M134   +  N134 - (G134 + H134 + I134 + J134 + S134 )</f>
         <v>0</v>
       </c>
       <c r="R134" t="s">
@@ -10079,7 +10119,7 @@
         <v>0</v>
       </c>
       <c r="P135" s="3">
-        <f t="shared" si="4"/>
+        <f>J135 + M135   +  N135 - (G135 + H135 + I135 + J135 + S135 )</f>
         <v>15</v>
       </c>
       <c r="R135" t="s">
@@ -10129,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="P136" s="3">
-        <f t="shared" si="4"/>
+        <f>J136 + M136   +  N136 - (G136 + H136 + I136 + J136 + S136 )</f>
         <v>0</v>
       </c>
       <c r="R136" t="s">
@@ -10179,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="P137" s="3">
-        <f t="shared" si="4"/>
+        <f>J137 + M137   +  N137 - (G137 + H137 + I137 + J137 + S137 )</f>
         <v>0</v>
       </c>
       <c r="R137" t="s">
@@ -10229,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="P138" s="3">
-        <f t="shared" si="4"/>
+        <f>J138 + M138   +  N138 - (G138 + H138 + I138 + J138 + S138 )</f>
         <v>0</v>
       </c>
       <c r="R138" t="s">
@@ -10279,7 +10319,7 @@
         <v>-15</v>
       </c>
       <c r="P139" s="3">
-        <f t="shared" si="4"/>
+        <f>J139 + M139   +  N139 - (G139 + H139 + I139 + J139 + S139 )</f>
         <v>4</v>
       </c>
       <c r="R139" t="s">
@@ -10329,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="P140" s="3">
-        <f t="shared" si="4"/>
+        <f>J140 + M140   +  N140 - (G140 + H140 + I140 + J140 + S140 )</f>
         <v>26</v>
       </c>
       <c r="R140" t="s">
@@ -10381,7 +10421,7 @@
         <v>0</v>
       </c>
       <c r="P141" s="3">
-        <f t="shared" si="4"/>
+        <f>J141 + M141   +  N141 - (G141 + H141 + I141 + J141 + S141 )</f>
         <v>13.5</v>
       </c>
       <c r="R141" t="s">
@@ -10431,7 +10471,7 @@
         <v>-12</v>
       </c>
       <c r="P142" s="3">
-        <f t="shared" si="4"/>
+        <f>J142 + M142   +  N142 - (G142 + H142 + I142 + J142 + S142 )</f>
         <v>15.5</v>
       </c>
       <c r="R142" t="s">
@@ -10481,7 +10521,7 @@
         <v>-60</v>
       </c>
       <c r="P143" s="3">
-        <f t="shared" si="4"/>
+        <f>J143 + M143   +  N143 - (G143 + H143 + I143 + J143 + S143 )</f>
         <v>-7.5</v>
       </c>
       <c r="R143" t="s">
@@ -10531,7 +10571,7 @@
         <v>-27</v>
       </c>
       <c r="P144" s="3">
-        <f t="shared" si="4"/>
+        <f>J144 + M144   +  N144 - (G144 + H144 + I144 + J144 + S144 )</f>
         <v>-15</v>
       </c>
       <c r="R144" t="s">
@@ -10580,7 +10620,7 @@
         <v>-15</v>
       </c>
       <c r="P145" s="3">
-        <f t="shared" si="4"/>
+        <f>J145 + M145   +  N145 - (G145 + H145 + I145 + J145 + S145 )</f>
         <v>0</v>
       </c>
       <c r="R145" t="s">
@@ -10627,7 +10667,7 @@
         <v>-15</v>
       </c>
       <c r="P146" s="3">
-        <f t="shared" si="4"/>
+        <f>J146 + M146   +  N146 - (G146 + H146 + I146 + J146 + S146 )</f>
         <v>0</v>
       </c>
       <c r="R146" t="s">

--- a/GestorReceitas/Fevereiro/relatorioMensal_backup_fevereiro_20250317_215147.xlsx
+++ b/GestorReceitas/Fevereiro/relatorioMensal_backup_fevereiro_20250317_215147.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\Fevereiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5452F5-CFD6-44F7-A508-7C8494C93157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555BD8F4-7B47-4DF2-86FB-B307A9D2611F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3227,8 +3227,8 @@
   <dimension ref="A1:R146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O37" sqref="O37"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="3">
-        <f>J2 + M2   +  N2 - (G2 + H2 + I2 + J2 + S2 )</f>
+        <f t="shared" ref="P2:P33" si="0">J2 + M2   +  N2 - (G2 + H2 + I2 + J2 + S2 )</f>
         <v>12</v>
       </c>
       <c r="R2" t="s">
@@ -3391,7 +3391,7 @@
         <v>30</v>
       </c>
       <c r="P3" s="3">
-        <f>J3 + M3   +  N3 - (G3 + H3 + I3 + J3 + S3 )</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="R3" t="s">
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="3">
-        <f>J4 + M4   +  N4 - (G4 + H4 + I4 + J4 + S4 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R4" t="s">
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="3">
-        <f>J5 + M5   +  N5 - (G5 + H5 + I5 + J5 + S5 )</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="R5" t="s">
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="3">
-        <f>J6 + M6   +  N6 - (G6 + H6 + I6 + J6 + S6 )</f>
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
       <c r="R6" t="s">
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="3">
-        <f>J7 + M7   +  N7 - (G7 + H7 + I7 + J7 + S7 )</f>
+        <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
       <c r="R7" t="s">
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <f>J8 + M8   +  N8 - (G8 + H8 + I8 + J8 + S8 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R8" t="s">
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <f>J9 + M9   +  N9 - (G9 + H9 + I9 + J9 + S9 )</f>
+        <f t="shared" si="0"/>
         <v>-20</v>
       </c>
       <c r="R9" t="s">
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <f>J10 + M10   +  N10 - (G10 + H10 + I10 + J10 + S10 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R10" t="s">
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="3">
-        <f>J11 + M11   +  N11 - (G11 + H11 + I11 + J11 + S11 )</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="R11" t="s">
@@ -3847,7 +3847,7 @@
         <v>-15</v>
       </c>
       <c r="P12" s="3">
-        <f>J12 + M12   +  N12 - (G12 + H12 + I12 + J12 + S12 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R12" t="s">
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="3">
-        <f>J13 + M13   +  N13 - (G13 + H13 + I13 + J13 + S13 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R13" t="s">
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
-        <f>J14 + M14   +  N14 - (G14 + H14 + I14 + J14 + S14 )</f>
+        <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
       <c r="R14" t="s">
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="3">
-        <f>J15 + M15   +  N15 - (G15 + H15 + I15 + J15 + S15 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R15" t="s">
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="3">
-        <f>J16 + M16   +  N16 - (G16 + H16 + I16 + J16 + S16 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R16" t="s">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
-        <f>J17 + M17   +  N17 - (G17 + H17 + I17 + J17 + S17 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
-        <f>J18 + M18   +  N18 - (G18 + H18 + I18 + J18 + S18 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R18" t="s">
@@ -4200,7 +4200,7 @@
         <v>-15</v>
       </c>
       <c r="P19" s="3">
-        <f>J19 + M19   +  N19 - (G19 + H19 + I19 + J19 + S19 )</f>
+        <f t="shared" si="0"/>
         <v>-8</v>
       </c>
       <c r="R19" t="s">
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <f>J20 + M20   +  N20 - (G20 + H20 + I20 + J20 + S20 )</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R20" t="s">
@@ -4300,7 +4300,7 @@
         <v>73</v>
       </c>
       <c r="P21" s="3">
-        <f>J21 + M21   +  N21 - (G21 + H21 + I21 + J21 + S21 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R21" t="s">
@@ -4352,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <f>J22 + M22   +  N22 - (G22 + H22 + I22 + J22 + S22 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R22" t="s">
@@ -4404,7 +4404,7 @@
         <v>10</v>
       </c>
       <c r="P23" s="3">
-        <f>J23 + M23   +  N23 - (G23 + H23 + I23 + J23 + S23 )</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="R23" t="s">
@@ -4451,7 +4451,7 @@
         <v>-60</v>
       </c>
       <c r="P24" s="3">
-        <f>J24 + M24   +  N24 - (G24 + H24 + I24 + J24 + S24 )</f>
+        <f t="shared" si="0"/>
         <v>-19</v>
       </c>
       <c r="R24" t="s">
@@ -4502,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="3">
-        <f>J25 + M25   +  N25 - (G25 + H25 + I25 + J25 + S25 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R25" t="s">
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <f>J26 + M26   +  N26 - (G26 + H26 + I26 + J26 + S26 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R26" t="s">
@@ -4599,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
-        <f>J27 + M27   +  N27 - (G27 + H27 + I27 + J27 + S27 )</f>
+        <f t="shared" si="0"/>
         <v>-3.75</v>
       </c>
       <c r="R27" t="s">
@@ -4651,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="3">
-        <f>J28 + M28   +  N28 - (G28 + H28 + I28 + J28 + S28 )</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="R28" t="s">
@@ -4701,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
-        <f>J29 + M29   +  N29 - (G29 + H29 + I29 + J29 + S29 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R29" t="s">
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="3">
-        <f>J30 + M30   +  N30 - (G30 + H30 + I30 + J30 + S30 )</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="R30" t="s">
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="3">
-        <f>J31 + M31   +  N31 - (G31 + H31 + I31 + J31 + S31 )</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R31" t="s">
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <f>J32 + M32   +  N32 - (G32 + H32 + I32 + J32 + S32 )</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="R32" t="s">
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <f>J33 + M33   +  N33 - (G33 + H33 + I33 + J33 + S33 )</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="R33" t="s">
@@ -4955,7 +4955,7 @@
         <v>-20</v>
       </c>
       <c r="P34" s="3">
-        <f>J34 + M34   +  N34 - (G34 + H34 + I34 + J34 + S34 )</f>
+        <f t="shared" ref="P34:P65" si="1">J34 + M34   +  N34 - (G34 + H34 + I34 + J34 + S34 )</f>
         <v>-14</v>
       </c>
       <c r="R34" t="s">
@@ -5007,7 +5007,7 @@
         <v>45</v>
       </c>
       <c r="P35" s="3">
-        <f>J35 + M35   +  N35 - (G35 + H35 + I35 + J35 + S35 )</f>
+        <f t="shared" si="1"/>
         <v>-45</v>
       </c>
       <c r="R35" t="s">
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="3">
-        <f>J36 + M36   +  N36 - (G36 + H36 + I36 + J36 + S36 )</f>
+        <f t="shared" si="1"/>
         <v>-29</v>
       </c>
       <c r="R36" t="s">
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="3">
-        <f>J37 + M37   +  N37 - (G37 + H37 + I37 + J37 + S37 )</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R37" t="s">
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="3">
-        <f>J38 + M38   +  N38 - (G38 + H38 + I38 + J38 + S38 )</f>
+        <f t="shared" si="1"/>
         <v>-15</v>
       </c>
       <c r="R38" t="s">
@@ -5205,7 +5205,7 @@
         <v>27.5</v>
       </c>
       <c r="P39" s="3">
-        <f>J39 + M39   +  N39 - (G39 + H39 + I39 + J39 + S39 )</f>
+        <f t="shared" si="1"/>
         <v>-27</v>
       </c>
       <c r="R39" t="s">
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="3">
-        <f>J40 + M40   +  N40 - (G40 + H40 + I40 + J40 + S40 )</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R40" t="s">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <f>J41 + M41   +  N41 - (G41 + H41 + I41 + J41 + S41 )</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R41" t="s">
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
-        <f>J42 + M42   +  N42 - (G42 + H42 + I42 + J42 + S42 )</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="R42" t="s">
@@ -5411,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <f>J43 + M43   +  N43 - (G43 + H43 + I43 + J43 + S43 )</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="R43" t="s">
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <f>J44 + M44   +  N44 - (G44 + H44 + I44 + J44 + S44 )</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R44" t="s">
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <f>J45 + M45   +  N45 - (G45 + H45 + I45 + J45 + S45 )</f>
+        <f t="shared" si="1"/>
         <v>19.5</v>
       </c>
       <c r="R45" t="s">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <f>J46 + M46   +  N46 - (G46 + H46 + I46 + J46 + S46 )</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="R46" t="s">
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <f>J47 + M47   +  N47 - (G47 + H47 + I47 + J47 + S47 )</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R47" t="s">
@@ -5665,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <f>J48 + M48   +  N48 - (G48 + H48 + I48 + J48 + S48 )</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="R48" t="s">
@@ -5715,7 +5715,7 @@
         <v>67.5</v>
       </c>
       <c r="P49" s="3">
-        <f>J49 + M49   +  N49 - (G49 + H49 + I49 + J49 + S49 )</f>
+        <f t="shared" si="1"/>
         <v>-15</v>
       </c>
       <c r="R49" t="s">
@@ -5767,7 +5767,7 @@
         <v>-22.5</v>
       </c>
       <c r="P50" s="3">
-        <f>J50 + M50   +  N50 - (G50 + H50 + I50 + J50 + S50 )</f>
+        <f t="shared" si="1"/>
         <v>-45</v>
       </c>
       <c r="R50" t="s">
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="3">
-        <f>J51 + M51   +  N51 - (G51 + H51 + I51 + J51 + S51 )</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="R51" t="s">
@@ -5874,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
-        <f>J52 + M52   +  N52 - (G52 + H52 + I52 + J52 + S52 )</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="R52" t="s">
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="3">
-        <f>J53 + M53   +  N53 - (G53 + H53 + I53 + J53 + S53 )</f>
+        <f t="shared" si="1"/>
         <v>-15</v>
       </c>
       <c r="R53" t="s">
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="3">
-        <f>J54 + M54   +  N54 - (G54 + H54 + I54 + J54 + S54 )</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="R54" t="s">
@@ -6024,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="3">
-        <f>J55 + M55   +  N55 - (G55 + H55 + I55 + J55 + S55 )</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="R55" t="s">
@@ -6074,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="3">
-        <f>J56 + M56   +  N56 - (G56 + H56 + I56 + J56 + S56 )</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="R56" t="s">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <f>J57 + M57   +  N57 - (G57 + H57 + I57 + J57 + S57 )</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R57" t="s">
@@ -6177,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <f>J58 + M58   +  N58 - (G58 + H58 + I58 + J58 + S58 )</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="R58" t="s">
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <f>J59 + M59   +  N59 - (G59 + H59 + I59 + J59 + S59 )</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="R59" t="s">
@@ -6278,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="3">
-        <f>J60 + M60   +  N60 - (G60 + H60 + I60 + J60 + S60 )</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="R60" t="s">
@@ -6330,7 +6330,7 @@
         <v>-80</v>
       </c>
       <c r="P61" s="3">
-        <f>J61 + M61   +  N61 - (G61 + H61 + I61 + J61 + S61 )</f>
+        <f t="shared" si="1"/>
         <v>-59</v>
       </c>
       <c r="R61" t="s">
@@ -6374,15 +6374,15 @@
         <v>0</v>
       </c>
       <c r="N62" s="2">
-        <f>33.5-5</f>
-        <v>28.5</v>
+        <f>33.5-5+33.5-15</f>
+        <v>47</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
       <c r="P62" s="3">
-        <f>J62 + M62   +  N62 - (G62 + H62 + I62 + J62 + S62 )</f>
-        <v>-36.5</v>
+        <f t="shared" si="1"/>
+        <v>-18</v>
       </c>
       <c r="R62" t="s">
         <v>192</v>
@@ -6432,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="3">
-        <f>J63 + M63   +  N63 - (G63 + H63 + I63 + J63 + S63 )</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R63" t="s">
@@ -6483,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="3">
-        <f>J64 + M64   +  N64 - (G64 + H64 + I64 + J64 + S64 )</f>
+        <f t="shared" si="1"/>
         <v>-8</v>
       </c>
       <c r="R64" t="s">
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="3">
-        <f>J65 + M65   +  N65 - (G65 + H65 + I65 + J65 + S65 )</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R65" t="s">
@@ -6585,7 +6585,7 @@
         <v>73</v>
       </c>
       <c r="P66" s="3">
-        <f>J66 + M66   +  N66 - (G66 + H66 + I66 + J66 + S66 )</f>
+        <f t="shared" ref="P66:P97" si="2">J66 + M66   +  N66 - (G66 + H66 + I66 + J66 + S66 )</f>
         <v>0</v>
       </c>
       <c r="R66" t="s">
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="P67" s="3">
-        <f>J67 + M67   +  N67 - (G67 + H67 + I67 + J67 + S67 )</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R67" t="s">
@@ -6687,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="3">
-        <f>J68 + M68   +  N68 - (G68 + H68 + I68 + J68 + S68 )</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R68" t="s">
@@ -6739,7 +6739,7 @@
         <v>20</v>
       </c>
       <c r="P69" s="3">
-        <f>J69 + M69   +  N69 - (G69 + H69 + I69 + J69 + S69 )</f>
+        <f t="shared" si="2"/>
         <v>-23</v>
       </c>
       <c r="R69" t="s">
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
-        <f>J70 + M70   +  N70 - (G70 + H70 + I70 + J70 + S70 )</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R70" t="s">
@@ -6842,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="P71" s="3">
-        <f>J71 + M71   +  N71 - (G71 + H71 + I71 + J71 + S71 )</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R71" t="s">
@@ -6892,7 +6892,7 @@
         <v>-68</v>
       </c>
       <c r="P72" s="3">
-        <f>J72 + M72   +  N72 - (G72 + H72 + I72 + J72 + S72 )</f>
+        <f t="shared" si="2"/>
         <v>-45</v>
       </c>
       <c r="R72" t="s">
@@ -6945,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="P73" s="3">
-        <f>J73 + M73   +  N73 - (G73 + H73 + I73 + J73 + S73 )</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="R73" t="s">
@@ -6995,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="P74" s="3">
-        <f>J74 + M74   +  N74 - (G74 + H74 + I74 + J74 + S74 )</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R74" t="s">
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="P75" s="3">
-        <f>J75 + M75   +  N75 - (G75 + H75 + I75 + J75 + S75 )</f>
+        <f t="shared" si="2"/>
         <v>-15</v>
       </c>
       <c r="R75" t="s">
@@ -7099,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="P76" s="3">
-        <f>J76 + M76   +  N76 - (G76 + H76 + I76 + J76 + S76 )</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R76" t="s">
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="P77" s="3">
-        <f>J77 + M77   +  N77 - (G77 + H77 + I77 + J77 + S77 )</f>
+        <f t="shared" si="2"/>
         <v>-45</v>
       </c>
       <c r="R77" t="s">
@@ -7201,7 +7201,7 @@
         <v>0</v>
       </c>
       <c r="P78" s="3">
-        <f>J78 + M78   +  N78 - (G78 + H78 + I78 + J78 + S78 )</f>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="R78" t="s">
@@ -7245,14 +7245,16 @@
         <v>0</v>
       </c>
       <c r="N79" s="2">
-        <v>33.5</v>
+        <f>33.5-33.5+15-15</f>
+        <v>0</v>
       </c>
       <c r="O79" s="3">
-        <v>-80</v>
+        <f>-80+15</f>
+        <v>-65</v>
       </c>
       <c r="P79" s="3">
-        <f>J79 + M79   +  N79 - (G79 + H79 + I79 + J79 + S79 )</f>
-        <v>-31.5</v>
+        <f t="shared" si="2"/>
+        <v>-65</v>
       </c>
       <c r="R79" t="s">
         <v>192</v>
@@ -7301,7 +7303,7 @@
         <v>-22.5</v>
       </c>
       <c r="P80" s="3">
-        <f>J80 + M80   +  N80 - (G80 + H80 + I80 + J80 + S80 )</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="R80" t="s">
@@ -7353,7 +7355,7 @@
         <v>-15</v>
       </c>
       <c r="P81" s="3">
-        <f>J81 + M81   +  N81 - (G81 + H81 + I81 + J81 + S81 )</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="R81" t="s">
@@ -7405,7 +7407,7 @@
         <v>-15</v>
       </c>
       <c r="P82" s="3">
-        <f>J82 + M82   +  N82 - (G82 + H82 + I82 + J82 + S82 )</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="R82" t="s">
@@ -7455,7 +7457,7 @@
         <v>-12</v>
       </c>
       <c r="P83" s="3">
-        <f>J83 + M83   +  N83 - (G83 + H83 + I83 + J83 + S83 )</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="R83" t="s">
@@ -7507,7 +7509,7 @@
         <v>-12</v>
       </c>
       <c r="P84" s="3">
-        <f>J84 + M84   +  N84 - (G84 + H84 + I84 + J84 + S84 )</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="R84" t="s">
@@ -7559,7 +7561,7 @@
         <v>-15</v>
       </c>
       <c r="P85" s="3">
-        <f>J85 + M85   +  N85 - (G85 + H85 + I85 + J85 + S85 )</f>
+        <f t="shared" si="2"/>
         <v>19.5</v>
       </c>
       <c r="R85" t="s">
@@ -7609,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="P86" s="3">
-        <f>J86 + M86   +  N86 - (G86 + H86 + I86 + J86 + S86 )</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R86" t="s">
@@ -7661,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="P87" s="3">
-        <f>J87 + M87   +  N87 - (G87 + H87 + I87 + J87 + S87 )</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R87" t="s">
@@ -7713,7 +7715,7 @@
         <v>-15</v>
       </c>
       <c r="P88" s="3">
-        <f>J88 + M88   +  N88 - (G88 + H88 + I88 + J88 + S88 )</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="R88" t="s">
@@ -7765,7 +7767,7 @@
         <v>-15</v>
       </c>
       <c r="P89" s="3">
-        <f>J89 + M89   +  N89 - (G89 + H89 + I89 + J89 + S89 )</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R89" t="s">
@@ -7819,7 +7821,7 @@
         <v>-15</v>
       </c>
       <c r="P90" s="3">
-        <f>J90 + M90   +  N90 - (G90 + H90 + I90 + J90 + S90 )</f>
+        <f t="shared" si="2"/>
         <v>-31.5</v>
       </c>
       <c r="R90" t="s">
@@ -7869,7 +7871,7 @@
         <v>-2</v>
       </c>
       <c r="P91" s="3">
-        <f>J91 + M91   +  N91 - (G91 + H91 + I91 + J91 + S91 )</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R91" t="s">
@@ -7921,7 +7923,7 @@
         <v>15</v>
       </c>
       <c r="P92" s="3">
-        <f>J92 + M92   +  N92 - (G92 + H92 + I92 + J92 + S92 )</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="R92" t="s">
@@ -7971,7 +7973,7 @@
         <v>-19</v>
       </c>
       <c r="P93" s="3">
-        <f>J93 + M93   +  N93 - (G93 + H93 + I93 + J93 + S93 )</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="R93" t="s">
@@ -8021,7 +8023,7 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
-        <f>J94 + M94   +  N94 - (G94 + H94 + I94 + J94 + S94 )</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R94" t="s">
@@ -8073,7 +8075,7 @@
         <v>15</v>
       </c>
       <c r="P95" s="3">
-        <f>J95 + M95   +  N95 - (G95 + H95 + I95 + J95 + S95 )</f>
+        <f t="shared" si="2"/>
         <v>-15</v>
       </c>
       <c r="R95" t="s">
@@ -8123,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <f>J96 + M96   +  N96 - (G96 + H96 + I96 + J96 + S96 )</f>
+        <f t="shared" si="2"/>
         <v>-23</v>
       </c>
       <c r="R96" t="s">
@@ -8173,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="P97" s="3">
-        <f>J97 + M97   +  N97 - (G97 + H97 + I97 + J97 + S97 )</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R97" t="s">
@@ -8223,7 +8225,7 @@
         <v>-34.25</v>
       </c>
       <c r="P98" s="3">
-        <f>J98 + M98   +  N98 - (G98 + H98 + I98 + J98 + S98 )</f>
+        <f t="shared" ref="P98:P129" si="3">J98 + M98   +  N98 - (G98 + H98 + I98 + J98 + S98 )</f>
         <v>4.25</v>
       </c>
       <c r="R98" t="s">
@@ -8275,7 +8277,7 @@
         <v>-15</v>
       </c>
       <c r="P99" s="3">
-        <f>J99 + M99   +  N99 - (G99 + H99 + I99 + J99 + S99 )</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="R99" t="s">
@@ -8329,7 +8331,7 @@
         <v>-27</v>
       </c>
       <c r="P100" s="3">
-        <f>J100 + M100   +  N100 - (G100 + H100 + I100 + J100 + S100 )</f>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="R100" t="s">
@@ -8381,7 +8383,7 @@
         <v>-15</v>
       </c>
       <c r="P101" s="3">
-        <f>J101 + M101   +  N101 - (G101 + H101 + I101 + J101 + S101 )</f>
+        <f t="shared" si="3"/>
         <v>-15</v>
       </c>
       <c r="R101" t="s">
@@ -8431,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <f>J102 + M102   +  N102 - (G102 + H102 + I102 + J102 + S102 )</f>
+        <f t="shared" si="3"/>
         <v>-30</v>
       </c>
       <c r="R102" t="s">
@@ -8483,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="P103" s="3">
-        <f>J103 + M103   +  N103 - (G103 + H103 + I103 + J103 + S103 )</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="R103" t="s">
@@ -8535,7 +8537,7 @@
         <v>3</v>
       </c>
       <c r="P104" s="3">
-        <f>J104 + M104   +  N104 - (G104 + H104 + I104 + J104 + S104 )</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R104" t="s">
@@ -8585,7 +8587,7 @@
         <v>0</v>
       </c>
       <c r="P105" s="3">
-        <f>J105 + M105   +  N105 - (G105 + H105 + I105 + J105 + S105 )</f>
+        <f t="shared" si="3"/>
         <v>-1.5</v>
       </c>
       <c r="R105" t="s">
@@ -8635,7 +8637,7 @@
         <v>-28</v>
       </c>
       <c r="P106" s="3">
-        <f>J106 + M106   +  N106 - (G106 + H106 + I106 + J106 + S106 )</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="R106" t="s">
@@ -8687,7 +8689,7 @@
         <v>-15</v>
       </c>
       <c r="P107" s="3">
-        <f>J107 + M107   +  N107 - (G107 + H107 + I107 + J107 + S107 )</f>
+        <f t="shared" si="3"/>
         <v>-15</v>
       </c>
       <c r="R107" t="s">
@@ -8739,7 +8741,7 @@
         <v>0</v>
       </c>
       <c r="P108" s="3">
-        <f>J108 + M108   +  N108 - (G108 + H108 + I108 + J108 + S108 )</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="R108" t="s">
@@ -8793,7 +8795,7 @@
         <v>-15</v>
       </c>
       <c r="P109" s="3">
-        <f>J109 + M109   +  N109 - (G109 + H109 + I109 + J109 + S109 )</f>
+        <f t="shared" si="3"/>
         <v>-25.5</v>
       </c>
       <c r="R109" t="s">
@@ -8845,7 +8847,7 @@
         <v>30</v>
       </c>
       <c r="P110" s="3">
-        <f>J110 + M110   +  N110 - (G110 + H110 + I110 + J110 + S110 )</f>
+        <f t="shared" si="3"/>
         <v>-15</v>
       </c>
       <c r="R110" t="s">
@@ -8895,7 +8897,7 @@
         <v>0</v>
       </c>
       <c r="P111" s="3">
-        <f>J111 + M111   +  N111 - (G111 + H111 + I111 + J111 + S111 )</f>
+        <f t="shared" si="3"/>
         <v>-73</v>
       </c>
       <c r="R111" t="s">
@@ -8945,7 +8947,7 @@
         <v>-21</v>
       </c>
       <c r="P112" s="3">
-        <f>J112 + M112   +  N112 - (G112 + H112 + I112 + J112 + S112 )</f>
+        <f t="shared" si="3"/>
         <v>-4</v>
       </c>
       <c r="R112" t="s">
@@ -8999,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="P113" s="3">
-        <f>J113 + M113   +  N113 - (G113 + H113 + I113 + J113 + S113 )</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="R113" t="s">
@@ -9051,7 +9053,7 @@
         <v>-72</v>
       </c>
       <c r="P114" s="3">
-        <f>J114 + M114   +  N114 - (G114 + H114 + I114 + J114 + S114 )</f>
+        <f t="shared" si="3"/>
         <v>-30</v>
       </c>
       <c r="R114" t="s">
@@ -9101,7 +9103,7 @@
         <v>-27</v>
       </c>
       <c r="P115" s="3">
-        <f>J115 + M115   +  N115 - (G115 + H115 + I115 + J115 + S115 )</f>
+        <f t="shared" si="3"/>
         <v>209</v>
       </c>
       <c r="Q115" t="s">
@@ -9151,7 +9153,7 @@
         <v>-68.5</v>
       </c>
       <c r="P116" s="3">
-        <f>J116 + M116   +  N116 - (G116 + H116 + I116 + J116 + S116 )</f>
+        <f t="shared" si="3"/>
         <v>26.5</v>
       </c>
       <c r="R116" t="s">
@@ -9203,7 +9205,7 @@
         <v>-43.5</v>
       </c>
       <c r="P117" s="3">
-        <f>J117 + M117   +  N117 - (G117 + H117 + I117 + J117 + S117 )</f>
+        <f t="shared" si="3"/>
         <v>-15</v>
       </c>
       <c r="R117" t="s">
@@ -9255,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="P118" s="3">
-        <f>J118 + M118   +  N118 - (G118 + H118 + I118 + J118 + S118 )</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R118" t="s">
@@ -9305,7 +9307,7 @@
         <v>67.5</v>
       </c>
       <c r="P119" s="3">
-        <f>J119 + M119   +  N119 - (G119 + H119 + I119 + J119 + S119 )</f>
+        <f t="shared" si="3"/>
         <v>-15</v>
       </c>
       <c r="R119" t="s">
@@ -9355,7 +9357,7 @@
         <v>-15</v>
       </c>
       <c r="P120" s="3">
-        <f>J120 + M120   +  N120 - (G120 + H120 + I120 + J120 + S120 )</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R120" t="s">
@@ -9405,7 +9407,7 @@
         <v>23</v>
       </c>
       <c r="P121" s="3">
-        <f>J121 + M121   +  N121 - (G121 + H121 + I121 + J121 + S121 )</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R121" t="s">
@@ -9455,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="P122" s="3">
-        <f>J122 + M122   +  N122 - (G122 + H122 + I122 + J122 + S122 )</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R122" t="s">
@@ -9507,7 +9509,7 @@
         <v>50</v>
       </c>
       <c r="P123" s="3">
-        <f>J123 + M123   +  N123 - (G123 + H123 + I123 + J123 + S123 )</f>
+        <f t="shared" si="3"/>
         <v>-23</v>
       </c>
       <c r="R123" t="s">
@@ -9559,7 +9561,7 @@
         <v>-15</v>
       </c>
       <c r="P124" s="3">
-        <f>J124 + M124   +  N124 - (G124 + H124 + I124 + J124 + S124 )</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="R124" t="s">
@@ -9609,7 +9611,7 @@
         <v>-45</v>
       </c>
       <c r="P125" s="3">
-        <f>J125 + M125   +  N125 - (G125 + H125 + I125 + J125 + S125 )</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="R125" t="s">
@@ -9661,7 +9663,7 @@
         <v>-15</v>
       </c>
       <c r="P126" s="3">
-        <f>J126 + M126   +  N126 - (G126 + H126 + I126 + J126 + S126 )</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="R126" t="s">
@@ -9711,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="P127" s="3">
-        <f>J127 + M127   +  N127 - (G127 + H127 + I127 + J127 + S127 )</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R127" t="s">
@@ -9761,7 +9763,7 @@
         <v>-10</v>
       </c>
       <c r="P128" s="3">
-        <f>J128 + M128   +  N128 - (G128 + H128 + I128 + J128 + S128 )</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="R128" t="s">
@@ -9811,7 +9813,7 @@
         <v>15</v>
       </c>
       <c r="P129" s="3">
-        <f>J129 + M129   +  N129 - (G129 + H129 + I129 + J129 + S129 )</f>
+        <f t="shared" si="3"/>
         <v>-15</v>
       </c>
       <c r="R129" t="s">
@@ -9863,7 +9865,7 @@
         <v>-15</v>
       </c>
       <c r="P130" s="3">
-        <f>J130 + M130   +  N130 - (G130 + H130 + I130 + J130 + S130 )</f>
+        <f t="shared" ref="P130:P146" si="4">J130 + M130   +  N130 - (G130 + H130 + I130 + J130 + S130 )</f>
         <v>15</v>
       </c>
       <c r="R130" t="s">
@@ -9915,7 +9917,7 @@
         <v>-15</v>
       </c>
       <c r="P131" s="3">
-        <f>J131 + M131   +  N131 - (G131 + H131 + I131 + J131 + S131 )</f>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="R131" t="s">
@@ -9965,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="P132" s="3">
-        <f>J132 + M132   +  N132 - (G132 + H132 + I132 + J132 + S132 )</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R132" t="s">
@@ -10017,7 +10019,7 @@
         <v>36.5</v>
       </c>
       <c r="P133" s="3">
-        <f>J133 + M133   +  N133 - (G133 + H133 + I133 + J133 + S133 )</f>
+        <f t="shared" si="4"/>
         <v>-17</v>
       </c>
       <c r="R133" t="s">
@@ -10067,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="P134" s="3">
-        <f>J134 + M134   +  N134 - (G134 + H134 + I134 + J134 + S134 )</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R134" t="s">
@@ -10119,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="P135" s="3">
-        <f>J135 + M135   +  N135 - (G135 + H135 + I135 + J135 + S135 )</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="R135" t="s">
@@ -10169,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="P136" s="3">
-        <f>J136 + M136   +  N136 - (G136 + H136 + I136 + J136 + S136 )</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R136" t="s">
@@ -10219,7 +10221,7 @@
         <v>0</v>
       </c>
       <c r="P137" s="3">
-        <f>J137 + M137   +  N137 - (G137 + H137 + I137 + J137 + S137 )</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R137" t="s">
@@ -10269,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="P138" s="3">
-        <f>J138 + M138   +  N138 - (G138 + H138 + I138 + J138 + S138 )</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R138" t="s">
@@ -10319,7 +10321,7 @@
         <v>-15</v>
       </c>
       <c r="P139" s="3">
-        <f>J139 + M139   +  N139 - (G139 + H139 + I139 + J139 + S139 )</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="R139" t="s">
@@ -10369,7 +10371,7 @@
         <v>0</v>
       </c>
       <c r="P140" s="3">
-        <f>J140 + M140   +  N140 - (G140 + H140 + I140 + J140 + S140 )</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="R140" t="s">
@@ -10421,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="P141" s="3">
-        <f>J141 + M141   +  N141 - (G141 + H141 + I141 + J141 + S141 )</f>
+        <f t="shared" si="4"/>
         <v>13.5</v>
       </c>
       <c r="R141" t="s">
@@ -10471,7 +10473,7 @@
         <v>-12</v>
       </c>
       <c r="P142" s="3">
-        <f>J142 + M142   +  N142 - (G142 + H142 + I142 + J142 + S142 )</f>
+        <f t="shared" si="4"/>
         <v>15.5</v>
       </c>
       <c r="R142" t="s">
@@ -10521,7 +10523,7 @@
         <v>-60</v>
       </c>
       <c r="P143" s="3">
-        <f>J143 + M143   +  N143 - (G143 + H143 + I143 + J143 + S143 )</f>
+        <f t="shared" si="4"/>
         <v>-7.5</v>
       </c>
       <c r="R143" t="s">
@@ -10571,7 +10573,7 @@
         <v>-27</v>
       </c>
       <c r="P144" s="3">
-        <f>J144 + M144   +  N144 - (G144 + H144 + I144 + J144 + S144 )</f>
+        <f t="shared" si="4"/>
         <v>-15</v>
       </c>
       <c r="R144" t="s">
@@ -10620,7 +10622,7 @@
         <v>-15</v>
       </c>
       <c r="P145" s="3">
-        <f>J145 + M145   +  N145 - (G145 + H145 + I145 + J145 + S145 )</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R145" t="s">
@@ -10667,7 +10669,7 @@
         <v>-15</v>
       </c>
       <c r="P146" s="3">
-        <f>J146 + M146   +  N146 - (G146 + H146 + I146 + J146 + S146 )</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R146" t="s">

--- a/GestorReceitas/Fevereiro/relatorioMensal_backup_fevereiro_20250317_215147.xlsx
+++ b/GestorReceitas/Fevereiro/relatorioMensal_backup_fevereiro_20250317_215147.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\Fevereiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555BD8F4-7B47-4DF2-86FB-B307A9D2611F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D29776-0D55-47AD-A6AA-5A1D1E021E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3227,8 +3227,8 @@
   <dimension ref="A1:R146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O56" sqref="O56"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6374,15 +6374,15 @@
         <v>0</v>
       </c>
       <c r="N62" s="2">
-        <f>33.5-5+33.5-15</f>
-        <v>47</v>
+        <f>33.5-5+33.5</f>
+        <v>62</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P62" s="3">
         <f t="shared" si="1"/>
-        <v>-18</v>
+        <v>-3</v>
       </c>
       <c r="R62" t="s">
         <v>192</v>
@@ -7245,11 +7245,10 @@
         <v>0</v>
       </c>
       <c r="N79" s="2">
-        <f>33.5-33.5+15-15</f>
+        <f>33.5-33.5</f>
         <v>0</v>
       </c>
       <c r="O79" s="3">
-        <f>-80+15</f>
         <v>-65</v>
       </c>
       <c r="P79" s="3">
@@ -7297,14 +7296,15 @@
         <v>0</v>
       </c>
       <c r="N80" s="2">
-        <v>30</v>
+        <f>30-22.5</f>
+        <v>7.5</v>
       </c>
       <c r="O80" s="3">
         <v>-22.5</v>
       </c>
       <c r="P80" s="3">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>-7.5</v>
       </c>
       <c r="R80" t="s">
         <v>255</v>
